--- a/docs/RIME設計工具-135拼音法.xlsx
+++ b/docs/RIME設計工具-135拼音法.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797059C-FDB4-4248-A9F8-FAFF0CF66B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F821467-16FA-4AA7-9D02-A485167DF926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{D5879FDD-8509-49DC-9316-9C9CA190885C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="6" xr2:uid="{D5879FDD-8509-49DC-9316-9C9CA190885C}"/>
   </bookViews>
   <sheets>
     <sheet name=" 135拼音-鍵盤設計" sheetId="4" r:id="rId1"/>
     <sheet name="拼音字母編碼與按鍵對映" sheetId="2" r:id="rId2"/>
     <sheet name="按鍵與注音符號對映" sheetId="1" r:id="rId3"/>
     <sheet name="RIME設計表" sheetId="3" r:id="rId4"/>
+    <sheet name="RIME設計表 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="拼音字母編碼與按鍵對映 (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="按鍵與注音符號對映 (2)" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="方音符號">#REF!</definedName>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="311">
   <si>
     <t>字串二</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1187,6 +1190,340 @@
     <t>高降調</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ㄦ</t>
+  </si>
+  <si>
+    <t>ir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng-</t>
+  </si>
+  <si>
+    <t>ng-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
+  <si>
+    <t>tsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-ng</t>
+  </si>
+  <si>
+    <t>-ng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>om</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>˪</t>
+  </si>
+  <si>
+    <t>˫</t>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>inn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unn</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>enn</t>
+  </si>
+  <si>
+    <t>unn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onn</t>
+  </si>
+  <si>
+    <t>onn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainn</t>
+  </si>
+  <si>
+    <t>ainn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aunn</t>
+  </si>
+  <si>
+    <t>aunn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｎ</t>
+  </si>
+  <si>
+    <t>- xlit|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>．</t>
+  </si>
+  <si>
+    <t>- xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657|</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>si-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshi-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-nn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;;"/>
   </numFmts>
-  <fonts count="76">
+  <fonts count="80">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1257,7 +1594,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1417,7 +1753,6 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1449,7 +1784,6 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1517,7 +1851,6 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1554,13 +1887,11 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1696,8 +2027,36 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="LXGW WenKai Mono"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1806,8 +2165,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1956,13 +2339,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,6 +2824,19 @@
     <xf numFmtId="0" fontId="34" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2368,6 +2844,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,55 +2900,49 @@
     <xf numFmtId="9" fontId="57" fillId="16" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="79" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2445,6 +2951,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFD1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2779,7 +3290,7 @@
   <dimension ref="A1:BY69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="27.75"/>
@@ -2878,66 +3389,66 @@
     </row>
     <row r="2" spans="1:75" s="68" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="95"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="152" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="155" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="155" t="s">
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="156"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158">
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177">
         <v>0.05</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="155" t="s">
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="156"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="155" t="s">
+      <c r="R2" s="175"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="156"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="161" t="s">
+      <c r="U2" s="175"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="171" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="161" t="s">
+      <c r="X2" s="172"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="161" t="s">
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="164" t="s">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="164" t="s">
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="166"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="168"/>
       <c r="AL2" s="95"/>
       <c r="AM2" s="95"/>
       <c r="AN2" s="95"/>
@@ -3069,44 +3580,44 @@
       <c r="G4" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="175" t="str">
+      <c r="H4" s="158" t="str">
         <f ca="1">AY17</f>
         <v>'</v>
       </c>
-      <c r="I4" s="177" t="s">
+      <c r="I4" s="162" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="179" t="s">
+      <c r="L4" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="175" t="str">
+      <c r="M4" s="163"/>
+      <c r="N4" s="158" t="str">
         <f ca="1">BA17</f>
         <v>"</v>
       </c>
-      <c r="O4" s="179" t="s">
+      <c r="O4" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="176"/>
+      <c r="P4" s="163"/>
       <c r="Q4" s="123" t="str">
         <f ca="1">AZ17</f>
         <v>ˇ</v>
       </c>
-      <c r="R4" s="177" t="s">
+      <c r="R4" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="S4" s="176"/>
+      <c r="S4" s="163"/>
       <c r="T4" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="U4" s="178" t="s">
+      <c r="U4" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="V4" s="176"/>
+      <c r="V4" s="163"/>
       <c r="W4" s="85" t="str">
         <f ca="1">AB17</f>
         <v>ㄚ</v>
@@ -3135,16 +3646,16 @@
         <v>an</v>
       </c>
       <c r="AF4" s="121" t="str">
-        <f ca="1">AV18</f>
-        <v>鼻</v>
+        <f>AR17</f>
+        <v>ㄦ</v>
       </c>
       <c r="AG4" s="108"/>
       <c r="AH4" s="83" t="str">
-        <f ca="1">AV20</f>
-        <v>N</v>
-      </c>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="168"/>
+        <f>AR20</f>
+        <v>ir</v>
+      </c>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="170"/>
       <c r="AK4" s="107"/>
       <c r="AL4" s="62"/>
       <c r="AM4" s="62"/>
@@ -3212,71 +3723,71 @@
     <row r="5" spans="1:75" s="68" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="95"/>
       <c r="B5" s="95"/>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="152" t="s">
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="152" t="s">
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="152" t="s">
+      <c r="J5" s="160"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="153"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="152" t="s">
+      <c r="M5" s="160"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="152" t="s">
+      <c r="P5" s="160"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="153"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="161" t="s">
+      <c r="S5" s="160"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="162"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="161" t="s">
+      <c r="V5" s="172"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="161" t="s">
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="161" t="s">
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="161" t="s">
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="161" t="s">
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="164" t="s">
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="166"/>
+      <c r="AN5" s="167"/>
+      <c r="AO5" s="168"/>
       <c r="AP5" s="95"/>
       <c r="AQ5" s="95"/>
       <c r="AR5" s="96"/>
@@ -3497,12 +4008,12 @@
         <v>oo</v>
       </c>
       <c r="AA7" s="85" t="str">
-        <f ca="1">AR17</f>
+        <f>AR17</f>
         <v>ㄦ</v>
       </c>
       <c r="AB7" s="84"/>
       <c r="AC7" s="117" t="str">
-        <f ca="1">AR20</f>
+        <f>AR20</f>
         <v>ir</v>
       </c>
       <c r="AD7" s="85" t="str">
@@ -3514,14 +4025,14 @@
         <f ca="1">AU20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="168"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="170"/>
       <c r="AI7" s="107"/>
-      <c r="AJ7" s="167"/>
-      <c r="AK7" s="168"/>
+      <c r="AJ7" s="169"/>
+      <c r="AK7" s="170"/>
       <c r="AL7" s="107"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="168"/>
+      <c r="AM7" s="169"/>
+      <c r="AN7" s="170"/>
       <c r="AO7" s="107"/>
       <c r="AP7" s="62"/>
       <c r="AQ7" s="62"/>
@@ -3586,61 +4097,61 @@
       <c r="A8" s="95"/>
       <c r="B8" s="95"/>
       <c r="C8" s="116"/>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="152" t="s">
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="152" t="s">
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="152" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="153"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="152" t="s">
+      <c r="N8" s="160"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="152" t="s">
+      <c r="Q8" s="160"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="153"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="161" t="s">
+      <c r="T8" s="160"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="162"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="161" t="s">
+      <c r="W8" s="172"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="161" t="s">
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="161" t="s">
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="AF8" s="162"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="164" t="s">
+      <c r="AF8" s="172"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="166"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="168"/>
       <c r="AK8" s="95"/>
       <c r="AL8" s="95"/>
       <c r="AM8" s="95"/>
@@ -3885,8 +4396,8 @@
         <f ca="1">AQ20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="168"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="170"/>
       <c r="AJ10" s="107"/>
       <c r="AK10" s="62"/>
       <c r="AL10" s="62"/>
@@ -3957,56 +4468,56 @@
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="152" t="s">
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152" t="s">
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="152" t="s">
+      <c r="L11" s="160"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="O11" s="153"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="152" t="s">
+      <c r="O11" s="160"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="152" t="s">
+      <c r="R11" s="160"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="153"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="161" t="s">
+      <c r="U11" s="160"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="161" t="s">
+      <c r="X11" s="172"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="161" t="s">
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="164" t="s">
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="166"/>
+      <c r="AG11" s="167"/>
+      <c r="AH11" s="168"/>
       <c r="AI11" s="95"/>
       <c r="AJ11" s="95"/>
       <c r="AK11" s="95"/>
@@ -4228,9 +4739,13 @@
         <f ca="1">AD20</f>
         <v>e</v>
       </c>
-      <c r="AC13" s="85"/>
+      <c r="AC13" s="85" t="s">
+        <v>10</v>
+      </c>
       <c r="AD13" s="84"/>
-      <c r="AE13" s="86"/>
+      <c r="AE13" s="86" t="s">
+        <v>32</v>
+      </c>
       <c r="AF13" s="85" t="str">
         <f ca="1">AS17</f>
         <v>ㄥ</v>
@@ -4825,9 +5340,8 @@
         <f t="array" aca="1" ref="AQ16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AQ$15-1, COLUMN($BK$4)))</f>
         <v>;</v>
       </c>
-      <c r="AR16" s="72" t="str" cm="1">
-        <f t="array" aca="1" ref="AR16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AR$15-1, COLUMN($BK$4)))</f>
-        <v>o</v>
+      <c r="AR16" s="72" t="s">
+        <v>294</v>
       </c>
       <c r="AS16" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="AS16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AS$15-1, COLUMN($BK$4)))</f>
@@ -4843,11 +5357,10 @@
       </c>
       <c r="AV16" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="AV16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AV$15-1, COLUMN($BK$4)))</f>
-        <v>-</v>
-      </c>
-      <c r="AW16" s="72" t="str" cm="1">
-        <f t="array" aca="1" ref="AW16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AW$15-1, COLUMN($BK$4)))</f>
-        <v xml:space="preserve"> </v>
+        <v>.</v>
+      </c>
+      <c r="AW16" s="72" t="s">
+        <v>295</v>
       </c>
       <c r="AX16" s="72" cm="1">
         <f t="array" aca="1" ref="AX16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+AX$15-1, COLUMN($BK$4)))</f>
@@ -5046,7 +5559,7 @@
         <v>ㄢ</v>
       </c>
       <c r="AJ17" s="142" t="str">
-        <f t="shared" ref="AJ17:BO17" ca="1" si="6">AJ18</f>
+        <f t="shared" ref="AJ17:BB17" ca="1" si="6">AJ18</f>
         <v>ㄞ</v>
       </c>
       <c r="AK17" s="142" t="str">
@@ -5078,7 +5591,7 @@
         <v>ㄤ</v>
       </c>
       <c r="AR17" s="142" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>ㄦ</v>
       </c>
       <c r="AS17" s="142" t="str">
@@ -5098,8 +5611,8 @@
         <v>鼻</v>
       </c>
       <c r="AW17" s="142" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ˉ</v>
+        <f t="shared" si="6"/>
+        <v>鼻</v>
       </c>
       <c r="AX17" s="142" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5330,7 +5843,7 @@
         <v>ㄤ</v>
       </c>
       <c r="AR18" s="145" t="str" cm="1">
-        <f t="array" aca="1" ref="AR18" ca="1" xml:space="preserve"> INDEX($BL$4:$BL$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
+        <f t="array" ref="AR18" xml:space="preserve"> INDEX($BL$4:$BL$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
         <v>ㄦ</v>
       </c>
       <c r="AS18" s="145" t="str" cm="1">
@@ -5350,8 +5863,8 @@
         <v>鼻</v>
       </c>
       <c r="AW18" s="145" t="str" cm="1">
-        <f t="array" aca="1" ref="AW18" ca="1" xml:space="preserve"> INDEX($BL$4:$BL$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
-        <v>ˉ</v>
+        <f t="array" ref="AW18" xml:space="preserve"> INDEX($BL$4:$BL$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
+        <v>鼻</v>
       </c>
       <c r="AX18" s="145" t="str" cm="1">
         <f t="array" aca="1" ref="AX18" ca="1" xml:space="preserve"> INDEX($BL$4:$BL$54, MATCH(TRUE, EXACT(AX$16, $BK$4:$BK$54), 0))</f>
@@ -5581,7 +6094,7 @@
         <v>ㄤ</v>
       </c>
       <c r="AR19" s="148" t="str" cm="1">
-        <f t="array" aca="1" ref="AR19" ca="1" xml:space="preserve"> INDEX($BM$4:$BM$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
+        <f t="array" ref="AR19" xml:space="preserve"> INDEX($BM$4:$BM$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
         <v>ㆨ</v>
       </c>
       <c r="AS19" s="148" t="str" cm="1">
@@ -5601,8 +6114,8 @@
         <v>鼻</v>
       </c>
       <c r="AW19" s="148" t="str" cm="1">
-        <f t="array" aca="1" ref="AW19" ca="1" xml:space="preserve"> INDEX($BM$4:$BM$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
-        <v>ˉ</v>
+        <f t="array" ref="AW19" xml:space="preserve"> INDEX($BM$4:$BM$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
+        <v>鼻</v>
       </c>
       <c r="AX19" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="AX19" ca="1" xml:space="preserve"> INDEX($BM$4:$BM$54, MATCH(TRUE, EXACT(AX$16, $BK$4:$BK$54), 0))</f>
@@ -5833,7 +6346,7 @@
         <v>ang</v>
       </c>
       <c r="AR20" s="151" t="str" cm="1">
-        <f t="array" aca="1" ref="AR20" ca="1" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
+        <f t="array" ref="AR20" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
         <v>ir</v>
       </c>
       <c r="AS20" s="151" t="str" cm="1">
@@ -5852,9 +6365,9 @@
         <f t="array" aca="1" ref="AV20" ca="1" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AV$16, $BK$4:$BK$54), 0))</f>
         <v>N</v>
       </c>
-      <c r="AW20" s="151" cm="1">
-        <f t="array" aca="1" ref="AW20" ca="1" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
-        <v>1</v>
+      <c r="AW20" s="151" t="str" cm="1">
+        <f t="array" ref="AW20" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
+        <v>N</v>
       </c>
       <c r="AX20" s="151" cm="1">
         <f t="array" aca="1" ref="AX20" ca="1" xml:space="preserve"> INDEX($BO$4:$BO$54, MATCH(TRUE, EXACT(AX$16, $BK$4:$BK$54), 0))</f>
@@ -6088,7 +6601,7 @@
         <v>[</v>
       </c>
       <c r="AR21" s="64" t="str" cm="1">
-        <f t="array" aca="1" ref="AR21" ca="1" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
+        <f t="array" ref="AR21" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AR$16, $BK$4:$BK$54), 0))</f>
         <v>R</v>
       </c>
       <c r="AS21" s="64" t="str" cm="1">
@@ -6107,9 +6620,9 @@
         <f t="array" aca="1" ref="AV21" ca="1" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AV$16, $BK$4:$BK$54), 0))</f>
         <v>B</v>
       </c>
-      <c r="AW21" s="64" cm="1">
-        <f t="array" aca="1" ref="AW21" ca="1" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
-        <v>1</v>
+      <c r="AW21" s="64" t="str" cm="1">
+        <f t="array" ref="AW21" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AW$16, $BK$4:$BK$54), 0))</f>
+        <v>B</v>
       </c>
       <c r="AX21" s="64" cm="1">
         <f t="array" aca="1" ref="AX21" ca="1" xml:space="preserve"> INDEX($BN$4:$BN$54, MATCH(TRUE, EXACT(AX$16, $BK$4:$BK$54), 0))</f>
@@ -6458,7 +6971,7 @@
       </c>
       <c r="E25" s="50" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D21:BB21)</f>
-        <v>pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570</v>
+        <v>pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -6560,7 +7073,7 @@
       </c>
       <c r="E26" s="47" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:BB16)</f>
-        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
@@ -6657,7 +7170,7 @@
     <row r="27" spans="1:75" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="B27" s="34" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E25 &amp; "|" &amp; E26 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657|</v>
+        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657|</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -6858,7 +7371,7 @@
       </c>
       <c r="E29" s="50" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(E25, "b", ""), "g", "")</f>
-        <v>pPmtTnlkKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570</v>
+        <v>pPmtTnlkKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
@@ -6960,7 +7473,7 @@
       </c>
       <c r="E30" s="47" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(E26, "!", ""), "E", "")</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
@@ -7056,7 +7569,7 @@
     <row r="31" spans="1:75" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="B31" s="34" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E29 &amp; "|" &amp; E30 &amp; "|"</f>
-        <v>- xlit|pPmtTnlkKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570|1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657|</v>
+        <v>- xlit|pPmtTnlkKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570|1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657|</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -7424,7 +7937,7 @@
       </c>
       <c r="E35" s="37" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:BB16)</f>
-        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -7529,7 +8042,7 @@
       </c>
       <c r="E36" s="35" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:BB17)</f>
-        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -7636,7 +8149,7 @@
     <row r="37" spans="2:75" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="B37" s="34" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E35 &amp; "|" &amp; E36 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657|ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ|</v>
+        <v>- xlit|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657|ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ|</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -7869,7 +8382,7 @@
       </c>
       <c r="E39" s="50" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(E35, _xlfn.CONCAT(AM36:AQ36), "")</f>
-        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="49"/>
@@ -7905,27 +8418,27 @@
       <c r="AK39" s="40"/>
       <c r="AL39" s="40" t="str">
         <f ca="1">$E$35</f>
-        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="AM39" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AL39, MID(AL39, FIND(AM36,AL39), 1), "")</f>
-        <v>1qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="AN39" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AM39, MID(AM39, FIND(AN36,AM39), 1), "")</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657</v>
       </c>
       <c r="AO39" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AN39, MID(AN39, FIND(AO36,AN39), 1), "")</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA;-/mp..43657</v>
       </c>
       <c r="AP39" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AO39, MID(AO39, FIND(AP36,AO39), 1), "")</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLO;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLO;-/mp..43657</v>
       </c>
       <c r="AQ39" s="45" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AP39, MID(AP39, FIND(AQ36,AP39), 1), "")</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lL;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lL;-/mp..43657</v>
       </c>
       <c r="AR39" s="40"/>
       <c r="AS39" s="40"/>
@@ -8026,27 +8539,27 @@
       <c r="AK40" s="40"/>
       <c r="AL40" s="40" t="str">
         <f ca="1">$E$36</f>
-        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AM40" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AL40, MID(AL40, FIND(AM38,AL40), 1), "")</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AN40" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AM40, MID(AM40, FIND(AN38,AM40), 1), "")</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AO40" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AN40, MID(AN40, FIND(AO38,AN40), 1), "")</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AP40" s="43" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AO40, MID(AO40, FIND(AP38,AO40), 1), "")</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AQ40" s="45" t="str">
         <f ca="1" xml:space="preserve"> SUBSTITUTE(AP40, MID(AP40, FIND(AQ38,AP40), 1), "")</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄥㄞㄥㄞㄠㄥㄠㄇㄚㄇㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄥㄞㄥㄞㄠㄥㄠㄇㄚㄇㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AR40" s="40"/>
       <c r="AS40" s="40"/>
@@ -8105,7 +8618,7 @@
     <row r="41" spans="2:75" s="43" customFormat="1" ht="31.5" customHeight="1">
       <c r="B41" s="34" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E39 &amp; "|" &amp; E40 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;o/mp- 43657|ㄅㄅ|</v>
+        <v>- xlit|1!qa2wsxeEd?yhnbYHNcuUjJ8*,&lt;iIk09(lLOA:;-/mp..43657|ㄅㄅ|</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -8210,7 +8723,7 @@
       <c r="AL42" s="16"/>
       <c r="AM42" s="40" t="str">
         <f ca="1">AQ39</f>
-        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lL;o/mp- 43657</v>
+        <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lL;-/mp..43657</v>
       </c>
       <c r="AN42" s="16"/>
       <c r="AO42" s="16"/>
@@ -8312,7 +8825,7 @@
       <c r="AL43" s="16"/>
       <c r="AM43" s="40" t="str">
         <f ca="1">AQ40</f>
-        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄥㄞㄥㄞㄠㄥㄠㄇㄚㄇㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄏㄆㄇㄉㄊㄋㄌㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄥㄞㄥㄞㄠㄥㄠㄇㄚㄇㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
@@ -8443,7 +8956,7 @@
         <v>41</v>
       </c>
       <c r="BK44" s="28" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="BL44" s="31" t="s">
         <v>204</v>
@@ -8461,7 +8974,7 @@
       <c r="BQ44" s="11"/>
       <c r="BR44" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>"o": { commit: "ㄦ" }</v>
+        <v>"-": { commit: "ㄦ" }</v>
       </c>
       <c r="BS44" s="11"/>
       <c r="BT44" s="13">
@@ -8470,11 +8983,11 @@
       </c>
       <c r="BU44" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>- xform/R/o/</v>
+        <v>- xform/R/-/</v>
       </c>
       <c r="BW44" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>- xform/o/ㄦ/</v>
+        <v>- xform/-/ㄦ/</v>
       </c>
     </row>
     <row r="45" spans="2:75" customFormat="1" ht="31.5" customHeight="1">
@@ -8488,7 +9001,7 @@
       </c>
       <c r="E45" s="37" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D21:BB21)</f>
-        <v>pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570</v>
+        <v>pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -8596,7 +9109,7 @@
       </c>
       <c r="E46" s="35" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:BB17)</f>
-        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ</v>
+        <v>ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -8696,7 +9209,7 @@
     <row r="47" spans="2:75" customFormat="1" ht="31.5" customHeight="1">
       <c r="B47" s="34" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E45 &amp; "|" &amp; E46 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNB123570|ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻ˉˋ'ˇ"ˊ|</v>
+        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAeEOQo@yYxX}{][RWMNBB23570|ㄅㄅㄏㄆㄇㄉㄊㄋㄌㄍㄍㄏㄎㄥㄗㄘㄙㄖㄐㄑㄒㄏㄧㄥㄧㄨㄥㄨㄚㄥㄚㄝㄥㄝㄛㄥㄛㄜㄢㄞㄥㄞㄠㄥㄠㄛㄇㄚㄇㄛㄥㄤㄦㄥㄇㄣ鼻鼻ˋ'ˇ"ˊ|</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -8862,7 +9375,7 @@
         <v>45</v>
       </c>
       <c r="BK48" s="28" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="BL48" s="22" t="s">
         <v>10</v>
@@ -8880,7 +9393,7 @@
       <c r="BQ48" s="11"/>
       <c r="BR48" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>"-": { commit: "鼻" }</v>
+        <v>".": { commit: "鼻" }</v>
       </c>
       <c r="BS48" s="11"/>
       <c r="BT48" s="13">
@@ -8889,11 +9402,11 @@
       </c>
       <c r="BU48" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>- xform/B/-/</v>
+        <v>- xform/B/./</v>
       </c>
       <c r="BW48" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>- xform/-/鼻/</v>
+        <v>- xform/./鼻/</v>
       </c>
     </row>
     <row r="49" spans="2:75" customFormat="1" ht="31.5" customHeight="1">
@@ -9164,7 +9677,7 @@
       <c r="BK51" s="23">
         <v>3</v>
       </c>
-      <c r="BL51" s="173" t="s">
+      <c r="BL51" s="156" t="s">
         <v>208</v>
       </c>
       <c r="BM51" s="25" t="s">
@@ -9643,7 +10156,9 @@
         <v>53</v>
       </c>
       <c r="BK56" s="11"/>
-      <c r="BL56" s="15"/>
+      <c r="BL56" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="BM56" s="15"/>
       <c r="BN56" s="11"/>
       <c r="BO56" s="11"/>
@@ -10393,41 +10908,19 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AD5:AF5"/>
@@ -10436,19 +10929,41 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10459,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB68A4-E155-4FFD-AE2B-8D3306256A1A}">
   <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -10543,7 +11058,7 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="171" t="str">
+      <c r="C10" s="154" t="str">
         <f xml:space="preserve"> MID($B$2,C4+1, F5)</f>
         <v>pbPmtTnlkgKhzcsjZCSiIuUaAOQoeEyYxX@MNWwR][{}B123570</v>
       </c>
@@ -10564,7 +11079,7 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="172" t="str">
+      <c r="C11" s="155" t="str">
         <f xml:space="preserve"> MID($B$2,C5+1, F6)</f>
         <v>1!qa2wsxeEdcyhnbYHNuUjJ8*iIk,&lt;9(lL0mp/?o:;AO- 43657</v>
       </c>
@@ -11306,7 +11821,7 @@
   <dimension ref="B2:T63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -11390,7 +11905,7 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="169" t="str">
+      <c r="C10" s="152" t="str">
         <f xml:space="preserve"> MID($B$2,C4+1, F5)</f>
         <v>1!qa2wsxeEdcyhnbYHNuUjJ8*iIk,&lt;9(lL0mp/?o;AO:- 43657</v>
       </c>
@@ -11411,7 +11926,7 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="170" t="str">
+      <c r="C11" s="153" t="str">
         <f xml:space="preserve"> MID($B$2,C5+1, F6)</f>
         <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㆡㄐㄑㄒㄧㆪㄨㆫㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㆬㄣㆭㄫㆨㄤㆰㆱㆲ鼻ˉˋ'ˇ"˙</v>
       </c>
@@ -12787,7 +13302,7 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D58" s="174" t="s">
+      <c r="D58" s="157" t="s">
         <v>212</v>
       </c>
       <c r="E58" s="2" t="str" cm="1">
@@ -12816,7 +13331,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D59" s="174" t="str">
+      <c r="D59" s="157" t="str">
         <f t="shared" si="5"/>
         <v>ˋ</v>
       </c>
@@ -12846,7 +13361,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D60" s="174" t="str">
+      <c r="D60" s="157" t="str">
         <f t="shared" si="5"/>
         <v>'</v>
       </c>
@@ -12876,7 +13391,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D61" s="174" t="str">
+      <c r="D61" s="157" t="str">
         <f t="shared" si="5"/>
         <v>ˇ</v>
       </c>
@@ -12906,7 +13421,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D62" s="174" t="str">
+      <c r="D62" s="157" t="str">
         <f t="shared" si="5"/>
         <v>"</v>
       </c>
@@ -12936,7 +13451,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D63" s="174" t="str">
+      <c r="D63" s="157" t="str">
         <f t="shared" si="5"/>
         <v>˙</v>
       </c>
@@ -12967,8 +13482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C80B56-CA69-419F-923C-C2C07BC5371B}">
   <dimension ref="A2:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -13034,6 +13549,12 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
+    <row r="7" spans="1:21">
+      <c r="C7" s="10" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; _xlfn.CONCAT(E$9:E$59) &amp; "|" &amp; _xlfn.CONCAT(C$9:C$53, " ", C$55:C$59) &amp; "|"</f>
+        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAOQoeEyYxX@MNWR][}{B123570|1!qa2wsxeEd?yhnbYHNcuUjJ8*iIk,&lt;9(lL0mp/o:;OA- 43657|</v>
+      </c>
+    </row>
     <row r="9" spans="1:21">
       <c r="B9">
         <v>1</v>
@@ -13807,7 +14328,7 @@
         <f>按鍵與注音符號對映!C58</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D54" s="174" t="s">
+      <c r="D54" s="157" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="2" t="str">
@@ -13898,6 +14419,5218 @@
       <c r="E59" s="2" t="str">
         <f>按鍵與注音符號對映!E63</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B0E8C-47E9-4B64-88BE-9B13DF9C8C3F}">
+  <dimension ref="A2:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="11" max="11" width="9.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26">
+      <c r="A2">
+        <f xml:space="preserve"> LEN(C2)</f>
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; _xlfn.CONCAT(E$9:E$59) &amp; "|" &amp; _xlfn.CONCAT(C$9:C$53, " ", C$55:C$59) &amp; "|"</f>
+        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAOQoeEyYxX@MNWR][}{B123570|1!qa2wsxeEd?yhnbYHNcuUjJ8*iIk,&lt;9(lL0mp/o:;OA- 43657|</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6">
+        <f xml:space="preserve"> LEN(C6)</f>
+        <v>111</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; _xlfn.CONCAT(C$9:C$53, " ", C$55:C$59) &amp; "|" &amp; _xlfn.CONCAT(D$9:D$59) &amp; "|"</f>
+        <v>- xlit|1!qa2wsxeEd?yhnbYHNcuUjJ8*iIk,&lt;9(lL0mp/o:;OA- 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㄘㄙㆡㄐㄑㄒㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㆤㆥㄞㆮㄠㆯㄢㆬㄣㆭㆨㆲㄤㆱㆰ鼻ˉˋ'ˇ"˙|</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="C7" s="10" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; _xlfn.CONCAT(E$9:E$59) &amp; "|" &amp; _xlfn.CONCAT(C$9:C$53, " ", C$55:C$59) &amp; "|"</f>
+        <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAOQoeEyYxX@MNWR][}{B123570|1!qa2wsxeEd?yhnbYHNcuUjJ8*iIk,&lt;9(lL0mp/o:;OA- 43657|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="23.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>按鍵與注音符號對映!C13</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>按鍵與注音符號對映!D13</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>按鍵與注音符號對映!E13</f>
+        <v>p</v>
+      </c>
+      <c r="H9" s="180">
+        <f t="shared" ref="H9:H40" si="0" xml:space="preserve"> ROW() - 8</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="183" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="191" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="186" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(L$9:L$47) &amp; "|" &amp; _xlfn.CONCAT(I$9:I$47) &amp; "|"""</f>
+        <v>- "xlit|pPmtTnlkKwzcsjhiuaOoeyx@MNWR[]}{B123570|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657|"</v>
+      </c>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+    </row>
+    <row r="10" spans="1:26" ht="23.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>按鍵與注音符號對映!C14</f>
+        <v>!</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>按鍵與注音符號對映!D14</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>按鍵與注音符號對映!E14</f>
+        <v>b</v>
+      </c>
+      <c r="H10" s="180">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="191" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="185"/>
+    </row>
+    <row r="11" spans="1:26" ht="23.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>按鍵與注音符號對映!C15</f>
+        <v>q</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>按鍵與注音符號對映!D15</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>按鍵與注音符號對映!E15</f>
+        <v>P</v>
+      </c>
+      <c r="H11" s="180">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="191" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="188" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(I$9:I$47) &amp; "|" &amp; _xlfn.CONCAT(J$9:J$47) &amp; "|"""</f>
+        <v>- "xlit|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㄖㄏㄧㄨㄚㆦㄜㄝㄞㄠㄢㆬㄣㄥㄦㄤㆲㆱㆰｎˉˋ˪ˇ˫˙|"</v>
+      </c>
+      <c r="O11" s="188"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="188"/>
+      <c r="U11" s="188"/>
+      <c r="V11" s="188"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="189"/>
+    </row>
+    <row r="12" spans="1:26" ht="23.25">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>按鍵與注音符號對映!C16</f>
+        <v>a</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>按鍵與注音符號對映!D16</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>按鍵與注音符號對映!E16</f>
+        <v>m</v>
+      </c>
+      <c r="H12" s="180">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="183" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" s="191" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+    </row>
+    <row r="13" spans="1:26" ht="23.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>按鍵與注音符號對映!C17</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>按鍵與注音符號對映!D17</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>按鍵與注音符號對映!E17</f>
+        <v>t</v>
+      </c>
+      <c r="H13" s="180">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="191" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="184" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="186" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(L$9:L$47) &amp; "|" &amp; _xlfn.CONCAT(J$9:J$47) &amp; "|"""</f>
+        <v>- "xlit|pPmtTnlkKwzcsjhiuaOoeyx@MNWR[]}{B123570|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㄖㄏㄧㄨㄚㆦㄜㄝㄞㄠㄢㆬㄣㄥㄦㄤㆲㆱㆰｎˉˋ˪ˇ˫˙|"</v>
+      </c>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+    </row>
+    <row r="14" spans="1:26" ht="23.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>按鍵與注音符號對映!C18</f>
+        <v>w</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>按鍵與注音符號對映!D18</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>按鍵與注音符號對映!E18</f>
+        <v>T</v>
+      </c>
+      <c r="H14" s="180">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="183" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="185"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+    </row>
+    <row r="15" spans="1:26" ht="23.25">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>按鍵與注音符號對映!C19</f>
+        <v>s</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>按鍵與注音符號對映!D19</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>按鍵與注音符號對映!E19</f>
+        <v>n</v>
+      </c>
+      <c r="H15" s="180">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="184" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>按鍵與注音符號對映!C20</f>
+        <v>x</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>按鍵與注音符號對映!D20</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>按鍵與注音符號對映!E20</f>
+        <v>l</v>
+      </c>
+      <c r="H16" s="180">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="191" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>按鍵與注音符號對映!C21</f>
+        <v>e</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>按鍵與注音符號對映!D21</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>按鍵與注音符號對映!E21</f>
+        <v>k</v>
+      </c>
+      <c r="H17" s="180">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I17" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="184" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>按鍵與注音符號對映!C22</f>
+        <v>E</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>按鍵與注音符號對映!D22</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>按鍵與注音符號對映!E22</f>
+        <v>g</v>
+      </c>
+      <c r="H18" s="180">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>按鍵與注音符號對映!C23</f>
+        <v>d</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>按鍵與注音符號對映!D23</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>按鍵與注音符號對映!E23</f>
+        <v>K</v>
+      </c>
+      <c r="H19" s="180">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I19" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" s="184" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>按鍵與注音符號對映!C51</f>
+        <v>?</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>按鍵與注音符號對映!D51</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>按鍵與注音符號對映!E51</f>
+        <v>w</v>
+      </c>
+      <c r="H20" s="180">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I20" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>按鍵與注音符號對映!C25</f>
+        <v>y</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>按鍵與注音符號對映!D25</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>按鍵與注音符號對映!E25</f>
+        <v>z</v>
+      </c>
+      <c r="H21" s="180">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="191" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L21" s="184" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>按鍵與注音符號對映!C26</f>
+        <v>h</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>按鍵與注音符號對映!D26</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>按鍵與注音符號對映!E26</f>
+        <v>c</v>
+      </c>
+      <c r="H22" s="180">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I22" s="183" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="191" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="184" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>按鍵與注音符號對映!C27</f>
+        <v>n</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>按鍵與注音符號對映!D27</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>按鍵與注音符號對映!E27</f>
+        <v>s</v>
+      </c>
+      <c r="H23" s="180">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I23" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" t="s">
+        <v>249</v>
+      </c>
+      <c r="L23" s="184" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>按鍵與注音符號對映!C28</f>
+        <v>b</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>按鍵與注音符號對映!D28</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>按鍵與注音符號對映!E28</f>
+        <v>j</v>
+      </c>
+      <c r="H24" s="180">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I24" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="191" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="184" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>按鍵與注音符號對映!C29</f>
+        <v>Y</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>按鍵與注音符號對映!D29</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>按鍵與注音符號對映!E29</f>
+        <v>Z</v>
+      </c>
+      <c r="H25" s="180">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I25" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="191" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>按鍵與注音符號對映!C30</f>
+        <v>H</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>按鍵與注音符號對映!D30</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>按鍵與注音符號對映!E30</f>
+        <v>C</v>
+      </c>
+      <c r="H26" s="180">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I26" s="183" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="184" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>按鍵與注音符號對映!C31</f>
+        <v>N</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>按鍵與注音符號對映!D31</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>按鍵與注音符號對映!E31</f>
+        <v>S</v>
+      </c>
+      <c r="H27" s="180">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I27" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="191" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" s="184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>按鍵與注音符號對映!C24</f>
+        <v>c</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>按鍵與注音符號對映!D24</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>按鍵與注音符號對映!E24</f>
+        <v>h</v>
+      </c>
+      <c r="H28" s="180">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I28" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>按鍵與注音符號對映!C32</f>
+        <v>u</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>按鍵與注音符號對映!D32</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>按鍵與注音符號對映!E32</f>
+        <v>i</v>
+      </c>
+      <c r="H29" s="180">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I29" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="191" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" s="184" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>按鍵與注音符號對映!C33</f>
+        <v>U</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>按鍵與注音符號對映!D33</f>
+        <v>ㆪ</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>按鍵與注音符號對映!E33</f>
+        <v>I</v>
+      </c>
+      <c r="H30" s="180">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I30" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="191" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="184" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>按鍵與注音符號對映!C34</f>
+        <v>j</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>按鍵與注音符號對映!D34</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>按鍵與注音符號對映!E34</f>
+        <v>u</v>
+      </c>
+      <c r="H31" s="180">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I31" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="191" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" s="184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>按鍵與注音符號對映!C35</f>
+        <v>J</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>按鍵與注音符號對映!D35</f>
+        <v>ㆫ</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>按鍵與注音符號對映!E35</f>
+        <v>U</v>
+      </c>
+      <c r="H32" s="180">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" s="184" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>按鍵與注音符號對映!C36</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>按鍵與注音符號對映!D36</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f>按鍵與注音符號對映!E36</f>
+        <v>a</v>
+      </c>
+      <c r="H33" s="180">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I33" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="184" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>按鍵與注音符號對映!C37</f>
+        <v>*</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>按鍵與注音符號對映!D37</f>
+        <v>ㆩ</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>按鍵與注音符號對映!E37</f>
+        <v>A</v>
+      </c>
+      <c r="H34" s="180">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I34" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>按鍵與注音符號對映!C38</f>
+        <v>i</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>按鍵與注音符號對映!D38</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>按鍵與注音符號對映!E38</f>
+        <v>O</v>
+      </c>
+      <c r="H35" s="180">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I35" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="191" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="181" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" s="184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>按鍵與注音符號對映!C39</f>
+        <v>I</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>按鍵與注音符號對映!D39</f>
+        <v>ㆧ</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f>按鍵與注音符號對映!E39</f>
+        <v>Q</v>
+      </c>
+      <c r="H36" s="180">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I36" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="191" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>按鍵與注音符號對映!C40</f>
+        <v>k</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>按鍵與注音符號對映!D40</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f>按鍵與注音符號對映!E40</f>
+        <v>o</v>
+      </c>
+      <c r="H37" s="180">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I37" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="191" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>按鍵與注音符號對映!C41</f>
+        <v>,</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>按鍵與注音符號對映!D41</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f>按鍵與注音符號對映!E41</f>
+        <v>e</v>
+      </c>
+      <c r="H38" s="180">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I38" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" s="184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>按鍵與注音符號對映!C42</f>
+        <v>&lt;</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>按鍵與注音符號對映!D42</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f>按鍵與注音符號對映!E42</f>
+        <v>E</v>
+      </c>
+      <c r="H39" s="180">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I39" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>264</v>
+      </c>
+      <c r="L39" s="184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>按鍵與注音符號對映!C43</f>
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>按鍵與注音符號對映!D43</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>按鍵與注音符號對映!E43</f>
+        <v>y</v>
+      </c>
+      <c r="H40" s="180">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I40" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="23.25">
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>按鍵與注音符號對映!C44</f>
+        <v>(</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>按鍵與注音符號對映!D44</f>
+        <v>ㆮ</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>按鍵與注音符號對映!E44</f>
+        <v>Y</v>
+      </c>
+      <c r="H41" s="180">
+        <f t="shared" ref="H41:H59" si="1" xml:space="preserve"> ROW() - 8</f>
+        <v>33</v>
+      </c>
+      <c r="I41" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="J41" s="191" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="186" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(L$9:L$54) &amp; "|" &amp; _xlfn.CONCAT(I$9:I$54) &amp; "|"""</f>
+        <v>- "xlit|pPmtTnlkKwzcsjhiuaOoeyx@MNWR[]}{B123570IUAQEYX|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657UJ*I&lt;(L|"</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="23.25">
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>按鍵與注音符號對映!C45</f>
+        <v>l</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>按鍵與注音符號對映!D45</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>按鍵與注音符號對映!E45</f>
+        <v>x</v>
+      </c>
+      <c r="H42" s="180">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I42" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="191" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="182">
+        <v>1</v>
+      </c>
+      <c r="L42" s="184" t="s">
+        <v>219</v>
+      </c>
+      <c r="N42" s="185"/>
+    </row>
+    <row r="43" spans="2:14" ht="23.25">
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>按鍵與注音符號對映!C46</f>
+        <v>L</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>按鍵與注音符號對映!D46</f>
+        <v>ㆯ</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f>按鍵與注音符號對映!E46</f>
+        <v>X</v>
+      </c>
+      <c r="H43" s="180">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I43" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="182">
+        <v>2</v>
+      </c>
+      <c r="L43" s="184" t="s">
+        <v>220</v>
+      </c>
+      <c r="N43" s="188" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(I$9:I$54) &amp; "|" &amp; _xlfn.CONCAT(J$9:J$54) &amp; "|"""</f>
+        <v>- "xlit|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657UJ*I&lt;(L|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㄖㄏㄧㄨㄚㆦㄜㄝㄞㄠㄢㆬㄣㄥㄦㄤㆲㆱㆰｎˉˋ˪ˇ˫˙ㆪㆫㆩㆧㆥㆮㆯ|"</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="23.25">
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>按鍵與注音符號對映!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>按鍵與注音符號對映!D47</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f>按鍵與注音符號對映!E47</f>
+        <v>@</v>
+      </c>
+      <c r="H44" s="180">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I44" s="183" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="182">
+        <v>3</v>
+      </c>
+      <c r="L44" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="N44" s="185"/>
+    </row>
+    <row r="45" spans="2:14" ht="23.25">
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>按鍵與注音符號對映!C48</f>
+        <v>m</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>按鍵與注音符號對映!D48</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f>按鍵與注音符號對映!E48</f>
+        <v>M</v>
+      </c>
+      <c r="H45" s="180">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I45" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" s="191" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="182">
+        <v>5</v>
+      </c>
+      <c r="L45" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="N45" s="186" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(L$9:L$47) &amp; "|" &amp; _xlfn.CONCAT(J$9:J$47) &amp; "|"""</f>
+        <v>- "xlit|pPmtTnlkKwzcsjhiuaOoeyx@MNWR[]}{B123570|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㄖㄏㄧㄨㄚㆦㄜㄝㄞㄠㄢㆬㄣㄥㄦㄤㆲㆱㆰｎˉˋ˪ˇ˫˙|"</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>按鍵與注音符號對映!C49</f>
+        <v>p</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>按鍵與注音符號對映!D49</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f>按鍵與注音符號對映!E49</f>
+        <v>N</v>
+      </c>
+      <c r="H46" s="180">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I46" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46" s="191" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" s="182">
+        <v>7</v>
+      </c>
+      <c r="L46" s="184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="21.75" thickBot="1">
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>按鍵與注音符號對映!C50</f>
+        <v>/</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>按鍵與注音符號對映!D50</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f>按鍵與注音符號對映!E50</f>
+        <v>W</v>
+      </c>
+      <c r="H47" s="180">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I47" s="183" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="182" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="184" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="21.75" thickTop="1">
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>按鍵與注音符號對映!C52</f>
+        <v>o</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>按鍵與注音符號對映!D52</f>
+        <v>ㆨ</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>按鍵與注音符號對映!E52</f>
+        <v>R</v>
+      </c>
+      <c r="H48" s="180">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I48" s="192" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="193" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="194" t="s">
+        <v>273</v>
+      </c>
+      <c r="L48" s="195" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" t="str">
+        <f xml:space="preserve"> "- xform/" &amp; L48 &amp; "/" &amp; $J$35 &amp; J24 &amp; "/"</f>
+        <v>- xform/I/ㄥㄧ/</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>按鍵與注音符號對映!C56</f>
+        <v>:</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>按鍵與注音符號對映!D56</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f>按鍵與注音符號對映!E56</f>
+        <v>]</v>
+      </c>
+      <c r="H49" s="180">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I49" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="L49" s="199" t="s">
+        <v>68</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" ref="N49:N54" si="2" xml:space="preserve"> "- xform/" &amp; L49 &amp; "/" &amp; $J$35 &amp; J25 &amp; "/"</f>
+        <v>- xform/U/ㄥㄨ/</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>按鍵與注音符號對映!C53</f>
+        <v>;</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>按鍵與注音符號對映!D53</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f>按鍵與注音符號對映!E53</f>
+        <v>[</v>
+      </c>
+      <c r="H50" s="180">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I50" s="196" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="198" t="s">
+        <v>278</v>
+      </c>
+      <c r="L50" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>- xform/A/ㄥㄚ/</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>按鍵與注音符號對映!C55</f>
+        <v>O</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>按鍵與注音符號對映!D55</f>
+        <v>ㆱ</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f>按鍵與注音符號對映!E55</f>
+        <v>}</v>
+      </c>
+      <c r="H51" s="180">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I51" s="196" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="197" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="198" t="s">
+        <v>280</v>
+      </c>
+      <c r="L51" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>- xform/Q/ㄥㆦ/</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>按鍵與注音符號對映!C54</f>
+        <v>A</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>按鍵與注音符號對映!D54</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>按鍵與注音符號對映!E54</f>
+        <v>{</v>
+      </c>
+      <c r="H52" s="180">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I52" s="196" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="197" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="L52" s="199" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" t="str">
+        <f xml:space="preserve"> "- xform/" &amp; L52 &amp; "/" &amp; $J$35 &amp; J29 &amp; "/"</f>
+        <v>- xform/E/ㄥㄝ/</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>按鍵與注音符號對映!C57</f>
+        <v>-</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>按鍵與注音符號對映!D57</f>
+        <v>鼻</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f>按鍵與注音符號對映!E57</f>
+        <v>B</v>
+      </c>
+      <c r="H53" s="180">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I53" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="197" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="199" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" ref="N53:N54" si="3" xml:space="preserve"> "- xform/" &amp; L53 &amp; "/" &amp; $J$35 &amp; J30 &amp; "/"</f>
+        <v>- xform/Y/ㄥㄞ/</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="23.25" thickBot="1">
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>按鍵與注音符號對映!C58</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D54" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f>按鍵與注音符號對映!E58</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="180">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I54" s="200" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="202" t="s">
+        <v>285</v>
+      </c>
+      <c r="L54" s="203" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>- xform/X/ㄥㄠ/</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="21.75" thickTop="1">
+      <c r="B55">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>按鍵與注音符號對映!C59</f>
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>按鍵與注音符號對映!D59</f>
+        <v>ˋ</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f>按鍵與注音符號對映!E59</f>
+        <v>2</v>
+      </c>
+      <c r="H55" s="180">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>按鍵與注音符號對映!C60</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>按鍵與注音符號對映!D60</f>
+        <v>'</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f>按鍵與注音符號對映!E60</f>
+        <v>3</v>
+      </c>
+      <c r="H56" s="180">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>按鍵與注音符號對映!C61</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>按鍵與注音符號對映!D61</f>
+        <v>ˇ</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f>按鍵與注音符號對映!E61</f>
+        <v>5</v>
+      </c>
+      <c r="H57" s="180">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>按鍵與注音符號對映!C62</f>
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>按鍵與注音符號對映!D62</f>
+        <v>"</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f>按鍵與注音符號對映!E62</f>
+        <v>7</v>
+      </c>
+      <c r="H58" s="180">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>按鍵與注音符號對映!C63</f>
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>按鍵與注音符號對映!D63</f>
+        <v>˙</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>按鍵與注音符號對映!E63</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="180">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EF30BB-DCDD-4D14-B07D-AA8626928D81}">
+  <dimension ref="B2:T65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.796875" style="1"/>
+    <col min="12" max="12" width="8.796875" style="1"/>
+    <col min="14" max="14" width="9.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> FIND("|", $B$2)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> LEN(B2)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> FIND("|", $B$2, C4+1)</f>
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>C5 - C4 -1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f xml:space="preserve"> FIND("|", $B$2, C5+1)</f>
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>C6 - C5 -1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="33">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="154" t="str">
+        <f xml:space="preserve"> MID($B$2,C4+1, F5)</f>
+        <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" ht="33">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="155" t="str">
+        <f xml:space="preserve"> MID($B$2,C5+1, F6)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="13" spans="2:20" ht="23.25">
+      <c r="B13">
+        <f t="shared" ref="B13:B63" si="0" xml:space="preserve"> ROW() -12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f xml:space="preserve"> MID($C$10, $B13, 1)</f>
+        <v>p</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" ref="G13:G63" si="1" xml:space="preserve"> MID($C$11, $B13, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G13, $C$13:$C$53), 0))</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" s="190">
+        <v>1</v>
+      </c>
+      <c r="L13" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" s="210" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="212" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(L$13:L$45, L$54:L$64, L$46:L$52) &amp; "|" &amp; _xlfn.CONCAT(M$13:M$45, M$54:M$64, M$46:M$52) &amp; "|"""</f>
+        <v>- "xlit|pPmbtTnlkKhjgzcsZCSiuaOoeyx@[RWMNIUAQEYXw]{}B123570|1qa!2wsxedcbEyhnYHNuj8ik,9l0;-/mpUJ*I&lt;(L?:AO. 43657|"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" ref="F14:F63" si="2" xml:space="preserve"> MID($C$10, $B14, 1)</f>
+        <v>P</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>q</v>
+      </c>
+      <c r="H14" t="str" cm="1">
+        <f t="array" ref="H14" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G14, $C$13:$C$53), 0))</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="190">
+        <v>2</v>
+      </c>
+      <c r="L14" s="209" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="210" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>m</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" ref="H15" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G15, $C$13:$C$53), 0))</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" s="190">
+        <v>3</v>
+      </c>
+      <c r="L15" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="210" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>b</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+      <c r="H16" t="str" cm="1">
+        <f t="array" ref="H16" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G16, $C$13:$C$53), 0))</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" s="190">
+        <v>4</v>
+      </c>
+      <c r="L16" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="210" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>t</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17" t="str" cm="1">
+        <f t="array" ref="H17" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G17, $C$13:$C$53), 0))</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" s="190">
+        <v>5</v>
+      </c>
+      <c r="L17" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="209" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="210" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+      <c r="H18" t="str" cm="1">
+        <f t="array" ref="H18" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G18, $C$13:$C$53), 0))</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" s="190">
+        <v>6</v>
+      </c>
+      <c r="L18" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="210" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="H19" t="str" cm="1">
+        <f t="array" ref="H19" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G19, $C$13:$C$53), 0))</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" s="190">
+        <v>7</v>
+      </c>
+      <c r="L19" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="210" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>d</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="H20" t="str" cm="1">
+        <f t="array" ref="H20" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G20, $C$13:$C$53), 0))</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" s="190">
+        <v>8</v>
+      </c>
+      <c r="L20" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="210" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>k</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="H21" t="str" cm="1">
+        <f t="array" ref="H21" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G21, $C$13:$C$53), 0))</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" s="190">
+        <v>9</v>
+      </c>
+      <c r="L21" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>K</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G22, $C$13:$C$53), 0))</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" s="190">
+        <v>10</v>
+      </c>
+      <c r="L22" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="209" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="210" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>h</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="H23" t="str" cm="1">
+        <f t="array" ref="H23" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G23, $C$13:$C$53), 0))</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" s="190">
+        <v>11</v>
+      </c>
+      <c r="L23" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>j</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G24, $C$13:$C$53), 0))</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" s="190">
+        <v>12</v>
+      </c>
+      <c r="L24" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="210" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G25, $C$13:$C$53), 0))</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" s="190">
+        <v>13</v>
+      </c>
+      <c r="L25" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="210" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>v</v>
+      </c>
+      <c r="H26" t="str" cm="1">
+        <f t="array" ref="H26" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G26, $C$13:$C$53), 0))</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" s="190">
+        <v>14</v>
+      </c>
+      <c r="L26" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="210" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>t</v>
+      </c>
+      <c r="H27" t="str" cm="1">
+        <f t="array" ref="H27" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G27, $C$13:$C$53), 0))</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="190">
+        <v>15</v>
+      </c>
+      <c r="L27" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="210" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>q</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="H28" t="str" cm="1">
+        <f t="array" ref="H28" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G28, $C$13:$C$53), 0))</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" s="190">
+        <v>16</v>
+      </c>
+      <c r="L28" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="210" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>z</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="H29" t="str" cm="1">
+        <f t="array" ref="H29" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G29, $C$13:$C$53), 0))</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" s="190">
+        <v>17</v>
+      </c>
+      <c r="L29" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="209" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="210" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>c</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>y</v>
+      </c>
+      <c r="H30" t="str" cm="1">
+        <f t="array" ref="H30" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G30, $C$13:$C$53), 0))</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" s="190">
+        <v>18</v>
+      </c>
+      <c r="L30" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="209" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="210" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="H31" t="str" cm="1">
+        <f t="array" ref="H31" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G31, $C$13:$C$53), 0))</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" s="190">
+        <v>19</v>
+      </c>
+      <c r="L31" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="210" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>n</v>
+      </c>
+      <c r="H32" t="str" cm="1">
+        <f t="array" ref="H32" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G32, $C$13:$C$53), 0))</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" s="190">
+        <v>20</v>
+      </c>
+      <c r="L32" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" s="210" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>u</v>
+      </c>
+      <c r="H33" t="str" cm="1">
+        <f t="array" ref="H33" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G33, $C$13:$C$53), 0))</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="190">
+        <v>21</v>
+      </c>
+      <c r="L33" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="210" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>u</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+      <c r="H34" t="str" cm="1">
+        <f t="array" ref="H34" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G34, $C$13:$C$53), 0))</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="190">
+        <v>22</v>
+      </c>
+      <c r="L34" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="209" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="210" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+      <c r="H35" t="str" cm="1">
+        <f t="array" ref="H35" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G35, $C$13:$C$53), 0))</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" s="190">
+        <v>23</v>
+      </c>
+      <c r="L35" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>a</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H36" t="str" cm="1">
+        <f t="array" ref="H36" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G36, $C$13:$C$53), 0))</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36" s="190">
+        <v>24</v>
+      </c>
+      <c r="L36" s="209" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="210" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="H37" t="str" cm="1">
+        <f t="array" ref="H37" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G37, $C$13:$C$53), 0))</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="190">
+        <v>25</v>
+      </c>
+      <c r="L37" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="209" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="210" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>ø</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+      <c r="H38" t="str" cm="1">
+        <f t="array" ref="H38" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G38, $C$13:$C$53), 0))</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" s="190">
+        <v>26</v>
+      </c>
+      <c r="L38" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="209" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" s="210" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="H39" t="str" cm="1">
+        <f t="array" ref="H39" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G39, $C$13:$C$53), 0))</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" s="190">
+        <v>27</v>
+      </c>
+      <c r="L39" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="210" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>I</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H40" t="str" cm="1">
+        <f t="array" ref="H40" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G40, $C$13:$C$53), 0))</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40" s="190">
+        <v>28</v>
+      </c>
+      <c r="L40" s="209" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="209" t="s">
+        <v>223</v>
+      </c>
+      <c r="N40" s="210" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>e</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+      <c r="H41" t="str" cm="1">
+        <f t="array" ref="H41" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G41, $C$13:$C$53), 0))</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" s="190">
+        <v>29</v>
+      </c>
+      <c r="L41" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="209" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="210" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>U</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+      <c r="H42" t="str" cm="1">
+        <f t="array" ref="H42" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G42, $C$13:$C$53), 0))</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" s="190">
+        <v>30</v>
+      </c>
+      <c r="L42" s="209" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="209" t="s">
+        <v>294</v>
+      </c>
+      <c r="N42" s="210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="H43" t="str" cm="1">
+        <f t="array" ref="H43" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G43, $C$13:$C$53), 0))</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43" s="190">
+        <v>31</v>
+      </c>
+      <c r="L43" s="209" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="209" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="211" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str" cm="1">
+        <f t="array" ref="H44" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G44, $C$13:$C$53), 0))</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44" s="190">
+        <v>32</v>
+      </c>
+      <c r="L44" s="209" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" s="210" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p</v>
+      </c>
+      <c r="H45" t="str" cm="1">
+        <f t="array" ref="H45" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G45, $C$13:$C$53), 0))</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" s="190">
+        <v>33</v>
+      </c>
+      <c r="L45" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="210" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>Q</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>;</v>
+      </c>
+      <c r="H46" t="str" cm="1">
+        <f t="array" ref="H46" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G46, $C$13:$C$53), 0))</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46" s="190">
+        <v>34</v>
+      </c>
+      <c r="L46" s="209" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" s="209" t="s">
+        <v>295</v>
+      </c>
+      <c r="N46" s="211" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/</v>
+      </c>
+      <c r="H47" t="str" cm="1">
+        <f t="array" ref="H47" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G47, $C$13:$C$53), 0))</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47" s="190">
+        <v>35</v>
+      </c>
+      <c r="L47" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="210"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v>N</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H48" t="str" cm="1">
+        <f t="array" ref="H48" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G48, $C$13:$C$53), 0))</f>
+        <v>ｎ</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48" s="190">
+        <v>36</v>
+      </c>
+      <c r="L48" s="209" t="s">
+        <v>220</v>
+      </c>
+      <c r="M48" s="209" t="s">
+        <v>224</v>
+      </c>
+      <c r="N48" s="210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H49" t="e" cm="1">
+        <f t="array" ref="H49" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G49, $C$13:$C$53), 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" s="190">
+        <v>37</v>
+      </c>
+      <c r="L49" s="209" t="s">
+        <v>225</v>
+      </c>
+      <c r="M49" s="209" t="s">
+        <v>225</v>
+      </c>
+      <c r="N49" s="210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H50" t="str" cm="1">
+        <f t="array" ref="H50" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G50, $C$13:$C$53), 0))</f>
+        <v>ˋ</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50" s="190">
+        <v>38</v>
+      </c>
+      <c r="L50" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="M50" s="209" t="s">
+        <v>227</v>
+      </c>
+      <c r="N50" s="210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H51" t="str" cm="1">
+        <f t="array" ref="H51" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G51, $C$13:$C$53), 0))</f>
+        <v>˪</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" s="190">
+        <v>39</v>
+      </c>
+      <c r="L51" s="209" t="s">
+        <v>229</v>
+      </c>
+      <c r="M51" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="N51" s="210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H52" t="str" cm="1">
+        <f t="array" ref="H52" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G52, $C$13:$C$53), 0))</f>
+        <v>ˊ</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52" s="190">
+        <v>40</v>
+      </c>
+      <c r="L52" s="209" t="s">
+        <v>223</v>
+      </c>
+      <c r="M52" s="209" t="s">
+        <v>229</v>
+      </c>
+      <c r="N52" s="210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H53" t="str" cm="1">
+        <f t="array" ref="H53" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G53, $C$13:$C$53), 0))</f>
+        <v>˫</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53">
+        <v>41</v>
+      </c>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H54" t="str" cm="1">
+        <f t="array" ref="H54" xml:space="preserve"> INDEX($D$13:$D$53, MATCH(TRUE, EXACT(G54, $C$13:$C$53), 0))</f>
+        <v>．</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="L54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="L55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="L56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="L57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="L58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="L59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="L60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="L61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="L63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="L64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A756C61-9F23-4BA7-9451-FB80B66380B1}">
+  <dimension ref="B2:AA63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27">
+      <c r="B2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> FIND("|", $B$2)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> LEN(B2)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> FIND("|", $B$2, C4+1)</f>
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>C5 - C4 -1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f xml:space="preserve"> FIND("|", $B$2, C5+1)</f>
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>C6 - C5 -1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="27.75">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="207" t="str">
+        <f xml:space="preserve"> MID($B$2,C4+1, F5)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:27" ht="27.75">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="208" t="str">
+        <f xml:space="preserve"> MID($B$2,C5+1, F6)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="13" spans="2:27" ht="23.25">
+      <c r="B13">
+        <f t="shared" ref="B13:B63" si="0" xml:space="preserve"> ROW() -12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" ref="C13:C63" si="1" xml:space="preserve"> MID($C$10, $B13, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" ref="D13:D63" si="2" xml:space="preserve"> MID($C$11, $B13, 1)</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="F13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="205" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(F$13:F$49) &amp; "|" &amp; _xlfn.CONCAT(G$13:G$49) &amp; "|"""</f>
+        <v>- "xlit|1!qa2wsxeEd?cyhnbujm8ik,9l0p;/-.43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄥㄏㄗㄘㄙㄖㄧㄨㄇㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥㄦｎˋ'ˇ\"．|"</v>
+      </c>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>q</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄆ</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄇ</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄉ</v>
+      </c>
+      <c r="F17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄊ</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄍ</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄎ</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="F24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="204" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>v</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>t</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄫ</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆡ</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="204" t="str">
+        <f>I26</f>
+        <v>ㄖ</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>y</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄗ</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄘ</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>n</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄙ</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="204" t="str">
+        <f>I15</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>u</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="204" t="str">
+        <f>I33</f>
+        <v>ㄝ</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆦ</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄞ</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="204" t="str">
+        <f>I39</f>
+        <v>ㄥ</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="F43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="204" t="str">
+        <f>I40</f>
+        <v>ㄦ</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="204" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>;</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="F47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ｎ</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ˋ</v>
+      </c>
+      <c r="F49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>˪</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="23.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ˊ</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>266</v>
+      </c>
+      <c r="L51" s="205" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(F$13:F$43, F$51:F$57, F$44:F$49) &amp; "|" &amp; _xlfn.CONCAT(G$13:G$43, G$51:G$57, G$44:G$49) &amp; "|"""</f>
+        <v>- "xlit|1!qa2wsxeEd?cyhnbujm8ik,9l0p;/-UJ*I&lt;(L.43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄥㄏㄗㄘㄙㄖㄧㄨㄇㄚㆦㄜㄝㄞㄠㄢㄣㄤㄥㄦㆪㆫㆩㆧㆥㆮㆯｎˋ'ˇ\"．|"</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>˫</v>
+      </c>
+      <c r="F52" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>．</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F55" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F56" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F62" t="s">
+        <v>291</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/docs/RIME設計工具-135拼音法.xlsx
+++ b/docs/RIME設計工具-135拼音法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3522779D-A65B-430B-B6E5-EDAB2AF1EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3E3D6-E9B5-4A0E-9718-61790F267801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="2" activeTab="9" xr2:uid="{D5879FDD-8509-49DC-9316-9C9CA190885C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="673" firstSheet="2" activeTab="9" xr2:uid="{D5879FDD-8509-49DC-9316-9C9CA190885C}"/>
   </bookViews>
   <sheets>
     <sheet name=" 135拼音-鍵盤設計" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="353">
   <si>
     <t>字串二</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1767,6 +1767,37 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>（空白）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音編碼與鍵盤按鍵對映</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍵盤按與與注音符號對映 (preededit_format)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音編碼與注音符號對映 (comment_format)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1775,7 +1806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;;"/>
   </numFmts>
-  <fonts count="98">
+  <fonts count="105">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1846,6 +1877,8 @@
     <font>
       <sz val="18"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1866,6 +1899,8 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -2227,6 +2262,8 @@
     <font>
       <sz val="16"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -2349,6 +2386,8 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2399,6 +2438,8 @@
     <font>
       <sz val="16"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2412,6 +2453,8 @@
       <b/>
       <sz val="16"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2419,6 +2462,8 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2429,8 +2474,56 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="BopomofoRuby1909-v1"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="BopomofoRuby1909-v1"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2560,6 +2653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,7 +2898,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3325,69 +3424,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="16" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="16" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="16" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="92" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3428,12 +3464,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="16" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="16" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="16" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3882,66 +4008,66 @@
     </row>
     <row r="2" spans="1:75" s="68" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="95"/>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="225" t="s">
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="236" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="236" t="s">
+      <c r="F2" s="237"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="237"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="236" t="s">
+      <c r="I2" s="240"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="237"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="239">
+      <c r="L2" s="240"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="242">
         <v>0.05</v>
       </c>
-      <c r="O2" s="240"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="236" t="s">
+      <c r="O2" s="243"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="239" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="237"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="236" t="s">
+      <c r="R2" s="240"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="239" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="237"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="233" t="s">
+      <c r="U2" s="240"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="233" t="s">
+      <c r="X2" s="251"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="235"/>
-      <c r="AC2" s="233" t="s">
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="228" t="s">
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="252"/>
+      <c r="AF2" s="245" t="s">
         <v>157</v>
       </c>
-      <c r="AG2" s="229"/>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="228" t="s">
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="245" t="s">
         <v>156</v>
       </c>
-      <c r="AJ2" s="229"/>
-      <c r="AK2" s="230"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="247"/>
       <c r="AL2" s="95"/>
       <c r="AM2" s="95"/>
       <c r="AN2" s="95"/>
@@ -4077,40 +4203,40 @@
         <f ca="1">AY17</f>
         <v>'</v>
       </c>
-      <c r="I4" s="221" t="s">
+      <c r="I4" s="253" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="222"/>
+      <c r="J4" s="254"/>
       <c r="K4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="223" t="s">
+      <c r="L4" s="255" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="222"/>
+      <c r="M4" s="254"/>
       <c r="N4" s="158" t="str">
         <f ca="1">BA17</f>
         <v>"</v>
       </c>
-      <c r="O4" s="223" t="s">
+      <c r="O4" s="255" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="222"/>
+      <c r="P4" s="254"/>
       <c r="Q4" s="123" t="str">
         <f ca="1">AZ17</f>
         <v>ˇ</v>
       </c>
-      <c r="R4" s="221" t="s">
+      <c r="R4" s="253" t="s">
         <v>216</v>
       </c>
-      <c r="S4" s="222"/>
+      <c r="S4" s="254"/>
       <c r="T4" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="U4" s="224" t="s">
+      <c r="U4" s="256" t="s">
         <v>215</v>
       </c>
-      <c r="V4" s="222"/>
+      <c r="V4" s="254"/>
       <c r="W4" s="85" t="str">
         <f ca="1">AB17</f>
         <v>ㄚ</v>
@@ -4147,8 +4273,8 @@
         <f>AR20</f>
         <v>ir</v>
       </c>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="232"/>
+      <c r="AI4" s="248"/>
+      <c r="AJ4" s="249"/>
       <c r="AK4" s="107"/>
       <c r="AL4" s="62"/>
       <c r="AM4" s="62"/>
@@ -4216,71 +4342,71 @@
     <row r="5" spans="1:75" s="68" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="95"/>
       <c r="B5" s="95"/>
-      <c r="C5" s="225" t="s">
+      <c r="C5" s="236" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="226"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="225" t="s">
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="226"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="225" t="s">
+      <c r="G5" s="237"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="225" t="s">
+      <c r="J5" s="237"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="226"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="225" t="s">
+      <c r="M5" s="237"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="236" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="225" t="s">
+      <c r="P5" s="237"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="226"/>
-      <c r="T5" s="227"/>
-      <c r="U5" s="233" t="s">
+      <c r="S5" s="237"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="234"/>
-      <c r="W5" s="235"/>
-      <c r="X5" s="233" t="s">
+      <c r="V5" s="251"/>
+      <c r="W5" s="252"/>
+      <c r="X5" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="234"/>
-      <c r="Z5" s="235"/>
-      <c r="AA5" s="233" t="s">
+      <c r="Y5" s="251"/>
+      <c r="Z5" s="252"/>
+      <c r="AA5" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" s="234"/>
-      <c r="AC5" s="235"/>
-      <c r="AD5" s="233" t="s">
+      <c r="AB5" s="251"/>
+      <c r="AC5" s="252"/>
+      <c r="AD5" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="234"/>
-      <c r="AF5" s="235"/>
-      <c r="AG5" s="233" t="s">
+      <c r="AE5" s="251"/>
+      <c r="AF5" s="252"/>
+      <c r="AG5" s="250" t="s">
         <v>150</v>
       </c>
-      <c r="AH5" s="234"/>
-      <c r="AI5" s="235"/>
-      <c r="AJ5" s="233" t="s">
+      <c r="AH5" s="251"/>
+      <c r="AI5" s="252"/>
+      <c r="AJ5" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="AK5" s="234"/>
-      <c r="AL5" s="235"/>
-      <c r="AM5" s="228" t="s">
+      <c r="AK5" s="251"/>
+      <c r="AL5" s="252"/>
+      <c r="AM5" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="AN5" s="229"/>
-      <c r="AO5" s="230"/>
+      <c r="AN5" s="246"/>
+      <c r="AO5" s="247"/>
       <c r="AP5" s="95"/>
       <c r="AQ5" s="95"/>
       <c r="AR5" s="96"/>
@@ -4518,14 +4644,14 @@
         <f ca="1">AU20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="231"/>
-      <c r="AH7" s="232"/>
+      <c r="AG7" s="248"/>
+      <c r="AH7" s="249"/>
       <c r="AI7" s="107"/>
-      <c r="AJ7" s="231"/>
-      <c r="AK7" s="232"/>
+      <c r="AJ7" s="248"/>
+      <c r="AK7" s="249"/>
       <c r="AL7" s="107"/>
-      <c r="AM7" s="231"/>
-      <c r="AN7" s="232"/>
+      <c r="AM7" s="248"/>
+      <c r="AN7" s="249"/>
       <c r="AO7" s="107"/>
       <c r="AP7" s="62"/>
       <c r="AQ7" s="62"/>
@@ -4590,61 +4716,61 @@
       <c r="A8" s="95"/>
       <c r="B8" s="95"/>
       <c r="C8" s="116"/>
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="225" t="s">
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="225" t="s">
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="226"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="225" t="s">
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
+      <c r="M8" s="236" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="226"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="225" t="s">
+      <c r="N8" s="237"/>
+      <c r="O8" s="238"/>
+      <c r="P8" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="225" t="s">
+      <c r="Q8" s="237"/>
+      <c r="R8" s="238"/>
+      <c r="S8" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="226"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="233" t="s">
+      <c r="T8" s="237"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="234"/>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="233" t="s">
+      <c r="W8" s="251"/>
+      <c r="X8" s="252"/>
+      <c r="Y8" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="234"/>
-      <c r="AA8" s="235"/>
-      <c r="AB8" s="233" t="s">
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="234"/>
-      <c r="AD8" s="235"/>
-      <c r="AE8" s="233" t="s">
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="252"/>
+      <c r="AE8" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="AF8" s="234"/>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="228" t="s">
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="245" t="s">
         <v>139</v>
       </c>
-      <c r="AI8" s="229"/>
-      <c r="AJ8" s="230"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="247"/>
       <c r="AK8" s="95"/>
       <c r="AL8" s="95"/>
       <c r="AM8" s="95"/>
@@ -4889,8 +5015,8 @@
         <f ca="1">AQ20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="231"/>
-      <c r="AI10" s="232"/>
+      <c r="AH10" s="248"/>
+      <c r="AI10" s="249"/>
       <c r="AJ10" s="107"/>
       <c r="AK10" s="62"/>
       <c r="AL10" s="62"/>
@@ -4961,56 +5087,56 @@
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
-      <c r="E11" s="225" t="s">
+      <c r="E11" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="226"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="225" t="s">
+      <c r="F11" s="237"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="226"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="225" t="s">
+      <c r="I11" s="237"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="236" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="225" t="s">
+      <c r="L11" s="237"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="O11" s="226"/>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="225" t="s">
+      <c r="O11" s="237"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="226"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="225" t="s">
+      <c r="R11" s="237"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="226"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="233" t="s">
+      <c r="U11" s="237"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="234"/>
-      <c r="Y11" s="235"/>
-      <c r="Z11" s="233" t="s">
+      <c r="X11" s="251"/>
+      <c r="Y11" s="252"/>
+      <c r="Z11" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="AA11" s="234"/>
-      <c r="AB11" s="235"/>
-      <c r="AC11" s="233" t="s">
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="252"/>
+      <c r="AC11" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="AD11" s="234"/>
-      <c r="AE11" s="235"/>
-      <c r="AF11" s="228" t="s">
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="252"/>
+      <c r="AF11" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="229"/>
-      <c r="AH11" s="230"/>
+      <c r="AG11" s="246"/>
+      <c r="AH11" s="247"/>
       <c r="AI11" s="95"/>
       <c r="AJ11" s="95"/>
       <c r="AK11" s="95"/>
@@ -11401,40 +11527,16 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="W11:Y11"/>
@@ -11447,16 +11549,40 @@
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11465,3089 +11591,2625 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA359-F777-498F-9536-BC8C48F7F7FF}">
-  <dimension ref="B2:AK126"/>
+  <dimension ref="B2:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J59" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
   <cols>
+    <col min="2" max="2" width="4.296875" style="265" customWidth="1"/>
     <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="195"/>
+    <col min="6" max="6" width="4.296875" style="265" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.296875" style="265" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="195"/>
+    <col min="15" max="15" width="4.296875" style="265" customWidth="1"/>
+    <col min="20" max="65" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="23.25">
-      <c r="B2" s="190" t="s">
-        <v>314</v>
+    <row r="2" spans="2:20">
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M2" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="215" t="str">
+        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(P$3:P$41, P$42:P$48, P$49:P$54) &amp; "'"</f>
+        <v xml:space="preserve">  alphabet: '1qaOAz2wsxedcEbyhnBYHNujm8ik,9l.0p;:/?-UJ*I&lt;(L
+43657'</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="266">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="258" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="266">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="258" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="257" t="str">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="str" cm="1">
+        <f t="array" ref="L3" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K3,$D$3:$D$47), 0))</f>
+        <v>p</v>
+      </c>
+      <c r="M3" s="157" t="str" cm="1">
+        <f t="array" ref="M3" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K3,$G$3:$G$47), 0))</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="O3" s="266">
+        <f xml:space="preserve"> ROW() - 2</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="186" t="str">
+        <f t="shared" ref="P3:P41" si="0">K3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="186" t="str">
+        <f t="shared" ref="Q3:Q41" si="1">L3</f>
+        <v>p</v>
+      </c>
+      <c r="R3" s="186" t="str">
+        <f t="shared" ref="R3:R41" si="2">M3</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="T3" s="215" t="str">
+        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(P$3:P$41, P$42:P$48) &amp; "'"</f>
+        <v xml:space="preserve">  initials: '1qaOAz2wsxedcEbyhnBYHNujm8ik,9l.0p;:/?-UJ*I&lt;(L'</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="B4" s="266">
+        <f t="shared" ref="B4:B47" si="3" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="266">
+        <f t="shared" ref="F4:F47" si="4" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="258" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="257" t="str">
+        <f t="shared" ref="K4:K47" si="5">D4</f>
+        <v>q</v>
+      </c>
+      <c r="L4" s="2" t="str" cm="1">
+        <f t="array" ref="L4" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K4,$D$3:$D$47), 0))</f>
+        <v>P</v>
+      </c>
+      <c r="M4" s="157" t="str" cm="1">
+        <f t="array" ref="M4" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K4,$G$3:$G$47), 0))</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="O4" s="266">
+        <f t="shared" ref="O4:O54" si="6" xml:space="preserve"> ROW() - 2</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>q</v>
+      </c>
+      <c r="Q4" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+      <c r="R4" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄆ</v>
+      </c>
+      <c r="T4" s="215" t="str">
+        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(P$49:P$54) &amp; "'"</f>
+        <v xml:space="preserve">  finals:   '
+43657'</v>
+      </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="157"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f xml:space="preserve"> FIND("|", B4)</f>
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B5" s="266">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F6">
-        <f xml:space="preserve"> LEN(B4)</f>
-        <v>93</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="157"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f xml:space="preserve"> FIND("|", B4, C6+1)</f>
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>C7 - C6 -1</f>
-        <v>42</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="157"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f xml:space="preserve"> FIND("|", B4, C7+1)</f>
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>C8 - C7 -1</f>
-        <v>42</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="L8" s="157"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="L9" s="157"/>
-    </row>
-    <row r="10" spans="2:20" ht="26.25">
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10">
-        <f xml:space="preserve"> LEN(D10)</f>
-        <v>42</v>
-      </c>
-      <c r="D10" s="191" t="str">
-        <f xml:space="preserve"> MID(B4,C6+1, F7)</f>
-        <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:20" ht="26.25">
-      <c r="B11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11">
-        <f xml:space="preserve"> LEN(D11)</f>
-        <v>42</v>
-      </c>
-      <c r="D11" s="192" t="str">
-        <f xml:space="preserve"> MID(B4,C7+1, F8)</f>
-        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="14" spans="2:20" ht="23.25">
-      <c r="B14" s="190" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="2:36">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="L17" s="157"/>
-    </row>
-    <row r="18" spans="2:36">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f xml:space="preserve"> FIND("|", B16)</f>
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="258" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="266">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F18">
-        <f xml:space="preserve"> LEN(B16)</f>
-        <v>91</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="157"/>
-    </row>
-    <row r="19" spans="2:36">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <f xml:space="preserve"> FIND("|", B16, C18+1)</f>
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>C19 - C18 -1</f>
-        <v>41</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="L19" s="157"/>
-    </row>
-    <row r="20" spans="2:36">
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <f xml:space="preserve"> FIND("|", B16, C19+1)</f>
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>C20 - C19 -1</f>
-        <v>41</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="L20" s="157"/>
-    </row>
-    <row r="21" spans="2:36">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="L21" s="157"/>
-    </row>
-    <row r="22" spans="2:36" ht="26.25">
-      <c r="B22" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22">
-        <f xml:space="preserve"> LEN(D22)</f>
-        <v>41</v>
-      </c>
-      <c r="D22" s="191" t="str">
-        <f xml:space="preserve"> MID(B16,C18+1, F19)</f>
-        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="2:36" ht="26.25">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23">
-        <f xml:space="preserve"> LEN(D23)</f>
-        <v>41</v>
-      </c>
-      <c r="D23" s="192" t="str">
-        <f xml:space="preserve"> MID(B16,C19+1, F20)</f>
-        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="25" spans="2:36">
-      <c r="C25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25" t="s">
-        <v>312</v>
-      </c>
-      <c r="F25" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" t="s">
-        <v>312</v>
-      </c>
-      <c r="K25" t="s">
-        <v>316</v>
-      </c>
-      <c r="L25" s="195" t="s">
-        <v>153</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V25" s="207" t="str">
-        <f>$B$2</f>
-        <v>注音編碼與按鍵對映</v>
-      </c>
-    </row>
-    <row r="26" spans="2:36" ht="26.25">
-      <c r="B26">
-        <f xml:space="preserve"> ROW() - 25</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f xml:space="preserve"> MID($D$10, $B26, 1)</f>
-        <v>p</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f xml:space="preserve"> MID($D$11, $B26, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B26, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B26, 1)</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="I26" s="193">
-        <f xml:space="preserve"> ROW() - 25</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="194" t="str">
-        <f t="shared" ref="J26:J67" si="0">D26</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="str" cm="1">
-        <f t="array" ref="K26" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J26,$D$26:$D$67), 0))</f>
-        <v>p</v>
-      </c>
-      <c r="L26" s="157" t="str" cm="1">
-        <f t="array" ref="L26" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J26,$F$26:$F$67), 0))</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="M26" s="199" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" s="200" t="str">
-        <f>L26</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="186" t="str">
-        <f t="shared" ref="Q26:S26" si="1">J26</f>
-        <v>1</v>
-      </c>
-      <c r="R26" s="186" t="str">
-        <f t="shared" si="1"/>
-        <v>p</v>
-      </c>
-      <c r="S26" s="186" t="str">
-        <f t="shared" si="1"/>
-        <v>ㄅ</v>
-      </c>
-      <c r="V26" s="208" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(R$26:R$60, R$62:R$67) &amp; "|" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$62:Q$67) &amp; "|"""</f>
-        <v>- "xlit|pbPmtTnlkgKhzcsjZCSwiuMaOoeyxB@N[WR123570|1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/- 43657|"</v>
-      </c>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169"/>
-    </row>
-    <row r="27" spans="2:36">
-      <c r="B27">
-        <f t="shared" ref="B27:B54" si="2" xml:space="preserve"> ROW() - 25</f>
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" ref="C27:C54" si="3" xml:space="preserve"> MID($D$10, $B27, 1)</f>
-        <v>P</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" ref="D27:D54" si="4" xml:space="preserve"> MID($D$11, $B27, 1)</f>
-        <v>q</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F61" si="5" xml:space="preserve"> MID($D$22, $B27, 1)</f>
-        <v>q</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" ref="G27:G61" si="6" xml:space="preserve"> MID($D$23, $B27, 1)</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="I27" s="193">
-        <f t="shared" ref="I27:I54" si="7" xml:space="preserve"> ROW() - 25</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>q</v>
-      </c>
-      <c r="K27" s="2" t="str" cm="1">
-        <f t="array" ref="K27" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J27,$D$26:$D$67), 0))</f>
-        <v>P</v>
-      </c>
-      <c r="L27" s="157" t="str" cm="1">
-        <f t="array" ref="L27" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J27,$F$26:$F$67), 0))</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="M27" s="199" t="s">
+      <c r="G5" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N27" s="200" t="str">
-        <f t="shared" ref="N27:N61" si="8">L27</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="186" t="s">
-        <v>122</v>
-      </c>
-      <c r="R27" s="186" t="str">
-        <f>K29</f>
-        <v>b</v>
-      </c>
-      <c r="S27" s="211" t="str">
-        <f>L29</f>
-        <v>ㆠ</v>
-      </c>
-    </row>
-    <row r="28" spans="2:36">
-      <c r="B28">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
-      </c>
-      <c r="F28" s="1" t="str">
+      <c r="K5" s="257" t="str">
         <f t="shared" si="5"/>
         <v>a</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="L5" s="2" t="str" cm="1">
+        <f t="array" ref="L5" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K5,$D$3:$D$47), 0))</f>
+        <v>m</v>
+      </c>
+      <c r="M5" s="157" t="str" cm="1">
+        <f t="array" ref="M5" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K5,$G$3:$G$47), 0))</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="O5" s="266">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="Q5" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+      <c r="R5" s="186" t="str">
+        <f t="shared" si="2"/>
         <v>ㄇ</v>
       </c>
-      <c r="I28" s="193">
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="266">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="258" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="266">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="258" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="L6" s="2" t="str" cm="1">
+        <f t="array" ref="L6" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K6,$D$3:$D$47), 0))</f>
+        <v>}</v>
+      </c>
+      <c r="M6" s="157" t="str" cm="1">
+        <f t="array" ref="M6" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K6,$G$3:$G$47), 0))</f>
+        <v>ㆱ</v>
+      </c>
+      <c r="O6" s="266">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P6" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="Q6" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>}</v>
+      </c>
+      <c r="R6" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆱ</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="266">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="258" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="266">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="258" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="L7" s="2" t="str" cm="1">
+        <f t="array" ref="L7" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K7,$D$3:$D$47), 0))</f>
+        <v>{</v>
+      </c>
+      <c r="M7" s="157" t="str" cm="1">
+        <f t="array" ref="M7" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K7,$G$3:$G$47), 0))</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="O7" s="266">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Q7" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>{</v>
+      </c>
+      <c r="R7" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="T7" s="207" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="27.75">
+      <c r="B8" s="266">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="258" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="266">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="258" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>z</v>
+      </c>
+      <c r="L8" s="2" t="str" cm="1">
+        <f t="array" ref="L8" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K8,$D$3:$D$47), 0))</f>
+        <v>b</v>
+      </c>
+      <c r="M8" s="157" t="str" cm="1">
+        <f t="array" ref="M8" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K8,$G$3:$G$47), 0))</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="O8" s="266">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P8" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>z</v>
+      </c>
+      <c r="Q8" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="R8" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="T8" s="208" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|" &amp; _xlfn.CONCAT(P3:P54) &amp; "|"""</f>
+        <v>- "xlit|pPm}{btTndkKhgjzcsJZCSiuBaoøMIUNLDQ]WwRIUAQEYX123570|1qaOAz2wsxedcEbyhnBYHNujm8ik,9l.0p;:/?-UJ*I&lt;(L
+43657|"</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="266">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="266">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="258" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="str" cm="1">
+        <f t="array" ref="L9" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K9,$D$3:$D$47), 0))</f>
+        <v>t</v>
+      </c>
+      <c r="M9" s="157" t="str" cm="1">
+        <f t="array" ref="M9" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K9,$G$3:$G$47), 0))</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="O9" s="266">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P9" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>t</v>
+      </c>
+      <c r="R9" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄉ</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="266">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="258" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="266">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="258" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>w</v>
+      </c>
+      <c r="L10" s="2" t="str" cm="1">
+        <f t="array" ref="L10" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K10,$D$3:$D$47), 0))</f>
+        <v>T</v>
+      </c>
+      <c r="M10" s="157" t="str" cm="1">
+        <f t="array" ref="M10" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K10,$G$3:$G$47), 0))</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="O10" s="266">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="Q10" s="211" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="R10" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄊ</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="266">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="258" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="266">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="258" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>s</v>
+      </c>
+      <c r="L11" s="2" t="str" cm="1">
+        <f t="array" ref="L11" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K11,$D$3:$D$47), 0))</f>
+        <v>n</v>
+      </c>
+      <c r="M11" s="157" t="str" cm="1">
+        <f t="array" ref="M11" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K11,$G$3:$G$47), 0))</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="O11" s="266">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P11" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="Q11" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>n</v>
+      </c>
+      <c r="R11" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="T11" s="207" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="27.75">
+      <c r="B12" s="266">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="258" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="266">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="258" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>x</v>
+      </c>
+      <c r="L12" s="2" t="str" cm="1">
+        <f t="array" ref="L12" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K12,$D$3:$D$47), 0))</f>
+        <v>d</v>
+      </c>
+      <c r="M12" s="157" t="str" cm="1">
+        <f t="array" ref="M12" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K12,$G$3:$G$47), 0))</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="O12" s="266">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="P12" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="Q12" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+      <c r="R12" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="T12" s="208" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(P3:P54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
+        <v>- "xlit|1qaOAz2wsxedcEbyhnBYHNujm8ik,9l.0p;:/?-UJ*I&lt;(L
+43657|ㄅㄆㄇㆱㆰㆠㄉㄊㄋㄌㄍㄎㄏㆣㆡㄗㄘㄙㆢㄐㄑㄒㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㄫㆨㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫．|"</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="266">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="258" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="266">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="258" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>e</v>
+      </c>
+      <c r="L13" s="2" t="str" cm="1">
+        <f t="array" ref="L13" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K13,$D$3:$D$47), 0))</f>
+        <v>k</v>
+      </c>
+      <c r="M13" s="157" t="str" cm="1">
+        <f t="array" ref="M13" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K13,$G$3:$G$47), 0))</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="O13" s="266">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P13" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="Q13" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+      <c r="R13" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄍ</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="266">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="258" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="266">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="258" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>d</v>
+      </c>
+      <c r="L14" s="2" t="str" cm="1">
+        <f t="array" ref="L14" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K14,$D$3:$D$47), 0))</f>
+        <v>K</v>
+      </c>
+      <c r="M14" s="157" t="str" cm="1">
+        <f t="array" ref="M14" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K14,$G$3:$G$47), 0))</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="O14" s="266">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P14" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="Q14" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>K</v>
+      </c>
+      <c r="R14" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄎ</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="266">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="258" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="266">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="258" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>c</v>
+      </c>
+      <c r="L15" s="2" t="str" cm="1">
+        <f t="array" ref="L15" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K15,$D$3:$D$47), 0))</f>
+        <v>h</v>
+      </c>
+      <c r="M15" s="157" t="str" cm="1">
+        <f t="array" ref="M15" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K15,$G$3:$G$47), 0))</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="O15" s="266">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="P15" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="Q15" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="R15" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="T15" s="207" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="27.75">
+      <c r="B16" s="266">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="266">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G16" s="258" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="L16" s="2" t="str" cm="1">
+        <f t="array" ref="L16" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K16,$D$3:$D$47), 0))</f>
+        <v>g</v>
+      </c>
+      <c r="M16" s="157" t="str" cm="1">
+        <f t="array" ref="M16" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K16,$G$3:$G$47), 0))</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="O16" s="266">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P16" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="Q16" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="R16" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="T16" s="208" t="str">
+        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q3:Q54) &amp; "|" &amp; _xlfn.CONCAT(R3:R54) &amp; "|"""</f>
+        <v>- "xlit|pPm}{btTndkKhgjzcsJZCSiuBaoøMIUNLDQ]WwRIUAQEYX123570|ㄅㄆㄇㆱㆰㆠㄉㄊㄋㄌㄍㄎㄏㆣㆡㄗㄘㄙㆢㄐㄑㄒㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㄫㆨㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫．|"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="266">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="258" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="266">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="258" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+      <c r="L17" s="2" t="str" cm="1">
+        <f t="array" ref="L17" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K17,$D$3:$D$47), 0))</f>
+        <v>j</v>
+      </c>
+      <c r="M17" s="157" t="str" cm="1">
+        <f t="array" ref="M17" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K17,$G$3:$G$47), 0))</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="O17" s="266">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="P17" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="Q17" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+      <c r="R17" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆡ</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="266">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="258" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="266">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="258" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="233" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>y</v>
+      </c>
+      <c r="L18" s="2" t="str" cm="1">
+        <f t="array" ref="L18" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K18,$D$3:$D$47), 0))</f>
+        <v>z</v>
+      </c>
+      <c r="M18" s="157" t="str" cm="1">
+        <f t="array" ref="M18" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K18,$G$3:$G$47), 0))</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="O18" s="266">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P18" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
+      <c r="Q18" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+      <c r="R18" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄗ</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="266">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="258" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="266">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G19" s="258" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>h</v>
+      </c>
+      <c r="L19" s="2" t="str" cm="1">
+        <f t="array" ref="L19" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K19,$D$3:$D$47), 0))</f>
+        <v>c</v>
+      </c>
+      <c r="M19" s="157" t="str" cm="1">
+        <f t="array" ref="M19" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K19,$G$3:$G$47), 0))</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="O19" s="266">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P19" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
+      <c r="Q19" s="211" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="R19" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄘ</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="266">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="258" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="266">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G20" s="258" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>n</v>
+      </c>
+      <c r="L20" s="2" t="str" cm="1">
+        <f t="array" ref="L20" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K20,$D$3:$D$47), 0))</f>
+        <v>s</v>
+      </c>
+      <c r="M20" s="157" t="str" cm="1">
+        <f t="array" ref="M20" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K20,$G$3:$G$47), 0))</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="O20" s="266">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P20" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>n</v>
+      </c>
+      <c r="Q20" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="R20" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄙ</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="266">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="266">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G21" s="258" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K21" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="L21" s="2" t="str" cm="1">
+        <f t="array" ref="L21" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K21,$D$3:$D$47), 0))</f>
+        <v>J</v>
+      </c>
+      <c r="M21" s="157" t="str" cm="1">
+        <f t="array" ref="M21" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K21,$G$3:$G$47), 0))</f>
+        <v>ㆢ</v>
+      </c>
+      <c r="O21" s="266">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="P21" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Q21" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="R21" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆢ</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="266">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="258" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="266">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="258" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="L22" s="2" t="str" cm="1">
+        <f t="array" ref="L22" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K22,$D$3:$D$47), 0))</f>
+        <v>Z</v>
+      </c>
+      <c r="M22" s="157" t="str" cm="1">
+        <f t="array" ref="M22" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K22,$G$3:$G$47), 0))</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="O22" s="266">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P22" s="213" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="Q22" s="214" t="str">
+        <f t="shared" si="1"/>
+        <v>Z</v>
+      </c>
+      <c r="R22" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="S22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="266">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="258" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="266">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="258" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="L23" s="2" t="str" cm="1">
+        <f t="array" ref="L23" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K23,$D$3:$D$47), 0))</f>
+        <v>C</v>
+      </c>
+      <c r="M23" s="157" t="str" cm="1">
+        <f t="array" ref="M23" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K23,$G$3:$G$47), 0))</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="O23" s="266">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P23" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="Q23" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="R23" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="266">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="258" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="266">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G24" s="258" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="L24" s="2" t="str" cm="1">
+        <f t="array" ref="L24" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K24,$D$3:$D$47), 0))</f>
+        <v>S</v>
+      </c>
+      <c r="M24" s="157" t="str" cm="1">
+        <f t="array" ref="M24" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K24,$G$3:$G$47), 0))</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="O24" s="266">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P24" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="Q24" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="R24" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="266">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="258" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="266">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G25" s="258" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>u</v>
+      </c>
+      <c r="L25" s="2" t="str" cm="1">
+        <f t="array" ref="L25" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K25,$D$3:$D$47), 0))</f>
+        <v>i</v>
+      </c>
+      <c r="M25" s="157" t="str" cm="1">
+        <f t="array" ref="M25" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K25,$G$3:$G$47), 0))</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="O25" s="266">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P25" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>u</v>
+      </c>
+      <c r="Q25" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="R25" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="266">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="258" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="266">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="258" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>j</v>
+      </c>
+      <c r="L26" s="2" t="str" cm="1">
+        <f t="array" ref="L26" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K26,$D$3:$D$47), 0))</f>
+        <v>u</v>
+      </c>
+      <c r="M26" s="157" t="str" cm="1">
+        <f t="array" ref="M26" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K26,$G$3:$G$47), 0))</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="O26" s="266">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P26" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>j</v>
+      </c>
+      <c r="Q26" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>u</v>
+      </c>
+      <c r="R26" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="266">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="258" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="266">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G27" s="258" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>m</v>
+      </c>
+      <c r="L27" s="2" t="str" cm="1">
+        <f t="array" ref="L27" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K27,$D$3:$D$47), 0))</f>
+        <v>B</v>
+      </c>
+      <c r="M27" s="157" t="str" cm="1">
+        <f t="array" ref="M27" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K27,$G$3:$G$47), 0))</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="O27" s="266">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P27" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>m</v>
+      </c>
+      <c r="Q27" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="R27" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="266">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="258" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="266">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="G28" s="258" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L28" s="2" t="str" cm="1">
+        <f t="array" ref="L28" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K28,$D$3:$D$47), 0))</f>
+        <v>a</v>
+      </c>
+      <c r="M28" s="157" t="str" cm="1">
+        <f t="array" ref="M28" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K28,$G$3:$G$47), 0))</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="O28" s="266">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="P28" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q28" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="R28" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="266">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="258" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="266">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="258" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>i</v>
+      </c>
+      <c r="L29" s="2" t="str" cm="1">
+        <f t="array" ref="L29" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K29,$D$3:$D$47), 0))</f>
+        <v>o</v>
+      </c>
+      <c r="M29" s="157" t="str" cm="1">
+        <f t="array" ref="M29" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K29,$G$3:$G$47), 0))</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="O29" s="266">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P29" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="Q29" s="186" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+      <c r="R29" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆦ</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="266">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D30" s="258" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="266">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G30" s="258" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>k</v>
+      </c>
+      <c r="L30" s="2" t="str" cm="1">
+        <f t="array" ref="L30" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K30,$D$3:$D$47), 0))</f>
+        <v>ø</v>
+      </c>
+      <c r="M30" s="157" t="str" cm="1">
+        <f t="array" ref="M30" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K30,$G$3:$G$47), 0))</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="O30" s="266">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P30" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>k</v>
+      </c>
+      <c r="Q30" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>ø</v>
+      </c>
+      <c r="R30" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="266">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="258" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="266">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="G31" s="258" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L31" s="2" t="str" cm="1">
+        <f t="array" ref="L31" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K31,$D$3:$D$47), 0))</f>
+        <v>M</v>
+      </c>
+      <c r="M31" s="157" t="str" cm="1">
+        <f t="array" ref="M31" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K31,$G$3:$G$47), 0))</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="O31" s="266">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P31" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="Q31" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+      <c r="R31" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="266">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="266">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L32" s="2" t="str" cm="1">
+        <f t="array" ref="L32" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K32,$D$3:$D$47), 0))</f>
+        <v>I</v>
+      </c>
+      <c r="M32" s="157" t="str" cm="1">
+        <f t="array" ref="M32" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K32,$G$3:$G$47), 0))</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="O32" s="266">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P32" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q32" s="211" t="str">
+        <f t="shared" si="1"/>
+        <v>I</v>
+      </c>
+      <c r="R32" s="213" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄞ</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="266">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="266">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G33" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>l</v>
+      </c>
+      <c r="L33" s="2" t="str" cm="1">
+        <f t="array" ref="L33" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K33,$D$3:$D$47), 0))</f>
+        <v>U</v>
+      </c>
+      <c r="M33" s="157" t="str" cm="1">
+        <f t="array" ref="M33" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K33,$G$3:$G$47), 0))</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="O33" s="266">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P33" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>l</v>
+      </c>
+      <c r="Q33" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>U</v>
+      </c>
+      <c r="R33" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="266">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="258" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="266">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="G34" s="258">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>.</v>
+      </c>
+      <c r="L34" s="2" t="str" cm="1">
+        <f t="array" ref="L34" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K34,$D$3:$D$47), 0))</f>
+        <v>N</v>
+      </c>
+      <c r="M34" s="157" t="str" cm="1">
+        <f t="array" ref="M34" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K34,$G$3:$G$47), 0))</f>
+        <v>ｎ</v>
+      </c>
+      <c r="O34" s="266">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P34" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="Q34" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="R34" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ｎ</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="266">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="258" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="266">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G35" s="258" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="str" cm="1">
+        <f t="array" ref="L35" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K35,$D$3:$D$47), 0))</f>
+        <v>L</v>
+      </c>
+      <c r="M35" s="157" t="str" cm="1">
+        <f t="array" ref="M35" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K35,$G$3:$G$47), 0))</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="O35" s="266">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="P35" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="R35" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄢ</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="266">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="258" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="266">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G36" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>p</v>
+      </c>
+      <c r="L36" s="2" t="str" cm="1">
+        <f t="array" ref="L36" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K36,$D$3:$D$47), 0))</f>
+        <v>D</v>
+      </c>
+      <c r="M36" s="157" t="str" cm="1">
+        <f t="array" ref="M36" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K36,$G$3:$G$47), 0))</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="O36" s="266">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>p</v>
+      </c>
+      <c r="Q36" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="R36" s="186" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="266">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="266">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G37" s="261" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>;</v>
+      </c>
+      <c r="L37" s="2" t="str" cm="1">
+        <f t="array" ref="L37" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K37,$D$3:$D$47), 0))</f>
+        <v>Q</v>
+      </c>
+      <c r="M37" s="157" t="str" cm="1">
+        <f t="array" ref="M37" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K37,$G$3:$G$47), 0))</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="O37" s="266">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="P37" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>;</v>
+      </c>
+      <c r="Q37" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>Q</v>
+      </c>
+      <c r="R37" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄤ</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="266">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="258" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="266">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G38" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>:</v>
+      </c>
+      <c r="L38" s="2" t="str" cm="1">
+        <f t="array" ref="L38" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K38,$D$3:$D$47), 0))</f>
+        <v>]</v>
+      </c>
+      <c r="M38" s="157" t="str" cm="1">
+        <f t="array" ref="M38" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K38,$G$3:$G$47), 0))</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="O38" s="266">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="P38" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>:</v>
+      </c>
+      <c r="Q38" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>]</v>
+      </c>
+      <c r="R38" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆲ</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="266">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="258" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="266">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="G39" s="258" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>/</v>
+      </c>
+      <c r="L39" s="2" t="str" cm="1">
+        <f t="array" ref="L39" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K39,$D$3:$D$47), 0))</f>
+        <v>W</v>
+      </c>
+      <c r="M39" s="157" t="str" cm="1">
+        <f t="array" ref="M39" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K39,$G$3:$G$47), 0))</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="O39" s="266">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="P39" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>/</v>
+      </c>
+      <c r="Q39" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+      <c r="R39" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆭ</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="266">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="258" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" s="181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="266">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="G40" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>?</v>
+      </c>
+      <c r="L40" s="2" t="str" cm="1">
+        <f t="array" ref="L40" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K40,$D$3:$D$47), 0))</f>
+        <v>w</v>
+      </c>
+      <c r="M40" s="157" t="str" cm="1">
+        <f t="array" ref="M40" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K40,$G$3:$G$47), 0))</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="O40" s="266">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="P40" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+      <c r="Q40" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+      <c r="R40" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㄫ</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="25.5">
+      <c r="B41" s="266">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="266">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="G41" s="258" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="264" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L41" s="2" t="str" cm="1">
+        <f t="array" ref="L41" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K41,$D$3:$D$47), 0))</f>
+        <v>R</v>
+      </c>
+      <c r="M41" s="157" t="str" cm="1">
+        <f t="array" ref="M41" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K41,$G$3:$G$47), 0))</f>
+        <v>ㆨ</v>
+      </c>
+      <c r="O41" s="266">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="P41" s="186" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="Q41" s="213" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+      <c r="R41" s="211" t="str">
+        <f t="shared" si="2"/>
+        <v>ㆨ</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="266">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="262" t="str">
+        <f xml:space="preserve"> CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F42" s="266">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G42" s="262" t="str">
+        <f xml:space="preserve"> CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H42" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="L42" s="2" t="str" cm="1">
+        <f t="array" ref="L42" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K42,$D$3:$D$47), 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="157" t="str" cm="1">
+        <f t="array" ref="M42" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K42,$G$3:$G$47), 0))</f>
+        <v>ˉ</v>
+      </c>
+      <c r="O42" s="266">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="P42" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q42" s="210" t="s">
+        <v>304</v>
+      </c>
+      <c r="R42" s="210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="266">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="258" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="266">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G43" s="258" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="260" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L43" s="2" t="str" cm="1">
+        <f t="array" ref="L43" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K43,$D$3:$D$47), 0))</f>
+        <v>2</v>
+      </c>
+      <c r="M43" s="157" t="str" cm="1">
+        <f t="array" ref="M43" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K43,$G$3:$G$47), 0))</f>
+        <v>ˋ</v>
+      </c>
+      <c r="O43" s="266">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="P43" s="209" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="210" t="s">
+        <v>301</v>
+      </c>
+      <c r="R43" s="210" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="266">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="258" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="266">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G44" s="258" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="260" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L44" s="2" t="str" cm="1">
+        <f t="array" ref="L44" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K44,$D$3:$D$47), 0))</f>
+        <v>3</v>
+      </c>
+      <c r="M44" s="157" t="str" cm="1">
+        <f t="array" ref="M44" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K44,$G$3:$G$47), 0))</f>
+        <v>˪</v>
+      </c>
+      <c r="O44" s="266">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="P44" s="209" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="R44" s="210" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="266">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="258" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="266">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="G45" s="258" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="260" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L45" s="2" t="str" cm="1">
+        <f t="array" ref="L45" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K45,$D$3:$D$47), 0))</f>
+        <v>5</v>
+      </c>
+      <c r="M45" s="157" t="str" cm="1">
+        <f t="array" ref="M45" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K45,$G$3:$G$47), 0))</f>
+        <v>ˊ</v>
+      </c>
+      <c r="O45" s="266">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="P45" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q45" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="R45" s="210" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="266">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="258" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="266">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G46" s="258" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="260" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" s="257" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L46" s="2" t="str" cm="1">
+        <f t="array" ref="L46" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K46,$D$3:$D$47), 0))</f>
+        <v>7</v>
+      </c>
+      <c r="M46" s="157" t="str" cm="1">
+        <f t="array" ref="M46" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K46,$G$3:$G$47), 0))</f>
+        <v>˫</v>
+      </c>
+      <c r="O46" s="266">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="P46" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="210" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" s="210" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="266">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="258">
+        <v>7</v>
+      </c>
+      <c r="F47" s="266">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G47" s="259" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="263" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" s="257">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L47" s="2" t="str" cm="1">
+        <f t="array" ref="L47" xml:space="preserve"> INDEX($C$3:$C$47, MATCH(TRUE, EXACT($K47,$D$3:$D$47), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="157" t="str" cm="1">
+        <f t="array" ref="M47" xml:space="preserve"> INDEX($H$3:$H$47, MATCH(TRUE, EXACT($K47,$G$3:$G$47), 0))</f>
+        <v>．</v>
+      </c>
+      <c r="O47" s="266">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="P47" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="210" t="s">
+        <v>332</v>
+      </c>
+      <c r="R47" s="210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="O48" s="266">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="P48" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="210" t="s">
+        <v>333</v>
+      </c>
+      <c r="R48" s="210" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="O49" s="266">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="P49" s="186" t="str">
+        <f t="shared" ref="P49:R54" si="7">K42</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="Q49" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="219" t="str">
+        <f t="shared" si="7"/>
+        <v>ˉ</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="M50" s="157"/>
+      <c r="O50" s="266">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="P50" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q50" s="186" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R50" s="219" t="str">
+        <f t="shared" si="7"/>
+        <v>ˋ</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="O51" s="266">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="P51" s="186" t="str">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="J28" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>a</v>
-      </c>
-      <c r="K28" s="2" t="str" cm="1">
-        <f t="array" ref="K28" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J28,$D$26:$D$67), 0))</f>
-        <v>m</v>
-      </c>
-      <c r="L28" s="157" t="str" cm="1">
-        <f t="array" ref="L28" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J28,$F$26:$F$67), 0))</f>
-        <v>ㄇ</v>
-      </c>
-      <c r="M28" s="199" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄇ</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="Q51" s="186" t="str">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="186" t="str">
-        <f t="shared" ref="Q28:S29" si="9">J27</f>
-        <v>q</v>
-      </c>
-      <c r="R28" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>P</v>
-      </c>
-      <c r="S28" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄆ</v>
-      </c>
-    </row>
-    <row r="29" spans="2:36">
-      <c r="B29">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>b</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>z</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>z</v>
-      </c>
-      <c r="G29" s="1" t="str">
+      <c r="R51" s="219" t="str">
+        <f t="shared" si="7"/>
+        <v>˪</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="O52" s="266">
         <f t="shared" si="6"/>
-        <v>ㆠ</v>
-      </c>
-      <c r="I29" s="193">
+        <v>50</v>
+      </c>
+      <c r="P52" s="186" t="str">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="J29" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>z</v>
-      </c>
-      <c r="K29" s="2" t="str" cm="1">
-        <f t="array" ref="K29" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J29,$D$26:$D$67), 0))</f>
-        <v>b</v>
-      </c>
-      <c r="L29" s="157" t="str" cm="1">
-        <f t="array" ref="L29" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J29,$F$26:$F$67), 0))</f>
-        <v>ㆠ</v>
-      </c>
-      <c r="M29" s="199" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆠ</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>a</v>
-      </c>
-      <c r="R29" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>m</v>
-      </c>
-      <c r="S29" s="186" t="str">
-        <f t="shared" si="9"/>
-        <v>ㄇ</v>
-      </c>
-      <c r="V29" s="207" t="str">
-        <f>$B$14</f>
-        <v>按鍵與注音符號對映</v>
-      </c>
-    </row>
-    <row r="30" spans="2:36">
-      <c r="B30">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>t</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄉ</v>
-      </c>
-      <c r="I30" s="193">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="186" t="str">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J30" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="str" cm="1">
-        <f t="array" ref="K30" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J30,$D$26:$D$67), 0))</f>
-        <v>t</v>
-      </c>
-      <c r="L30" s="157" t="str" cm="1">
-        <f t="array" ref="L30" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J30,$F$26:$F$67), 0))</f>
-        <v>ㄉ</v>
-      </c>
-      <c r="M30" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="N30" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄉ</v>
-      </c>
-      <c r="P30" s="1">
+      <c r="R52" s="219" t="str">
+        <f t="shared" si="7"/>
+        <v>ˊ</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="O53" s="266">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="P53" s="186" t="str">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Q30" s="186" t="str">
-        <f t="shared" ref="Q30:S32" si="10">J30</f>
-        <v>2</v>
-      </c>
-      <c r="R30" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>t</v>
-      </c>
-      <c r="S30" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>ㄉ</v>
-      </c>
-      <c r="V30" s="170" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$63:Q$67) &amp; "|" &amp; _xlfn.CONCAT(S$26:S$60, S$63:S$67) &amp; "|"""</f>
-        <v>- "xlit|1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/-43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㆡㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨˋ˪ˊ˫˙|"</v>
-      </c>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="169"/>
-      <c r="AA30" s="169"/>
-      <c r="AB30" s="169"/>
-      <c r="AC30" s="169"/>
-      <c r="AD30" s="169"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="169"/>
-      <c r="AJ30" s="169"/>
-    </row>
-    <row r="31" spans="2:36">
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>w</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>w</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄊ</v>
-      </c>
-      <c r="I31" s="193">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="J31" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>w</v>
-      </c>
-      <c r="K31" s="2" t="str" cm="1">
-        <f t="array" ref="K31" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J31,$D$26:$D$67), 0))</f>
-        <v>T</v>
-      </c>
-      <c r="L31" s="157" t="str" cm="1">
-        <f t="array" ref="L31" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J31,$F$26:$F$67), 0))</f>
-        <v>ㄊ</v>
-      </c>
-      <c r="M31" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄊ</v>
-      </c>
-      <c r="P31" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>w</v>
-      </c>
-      <c r="R31" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>T</v>
-      </c>
-      <c r="S31" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>ㄊ</v>
-      </c>
-    </row>
-    <row r="32" spans="2:36">
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>s</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄋ</v>
-      </c>
-      <c r="I32" s="193">
+      <c r="Q53" s="186" t="str">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="J32" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
-      </c>
-      <c r="K32" s="2" t="str" cm="1">
-        <f t="array" ref="K32" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J32,$D$26:$D$67), 0))</f>
-        <v>n</v>
-      </c>
-      <c r="L32" s="157" t="str" cm="1">
-        <f t="array" ref="L32" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J32,$F$26:$F$67), 0))</f>
-        <v>ㄋ</v>
-      </c>
-      <c r="M32" s="199" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄋ</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="R53" s="219" t="str">
+        <f t="shared" si="7"/>
+        <v>˫</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="O54" s="266">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="P54" s="186">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="Q32" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>s</v>
-      </c>
-      <c r="R32" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>n</v>
-      </c>
-      <c r="S32" s="186" t="str">
-        <f t="shared" si="10"/>
-        <v>ㄋ</v>
-      </c>
-    </row>
-    <row r="33" spans="2:36">
-      <c r="B33">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>d</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>x</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄌ</v>
-      </c>
-      <c r="I33" s="193">
+      <c r="Q54" s="186" t="str">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="J33" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="K33" s="2" t="str" cm="1">
-        <f t="array" ref="K33" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J33,$D$26:$D$67), 0))</f>
-        <v>d</v>
-      </c>
-      <c r="L33" s="157" t="str" cm="1">
-        <f t="array" ref="L33" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J33,$F$26:$F$67), 0))</f>
-        <v>ㄌ</v>
-      </c>
-      <c r="M33" s="199" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄌ</v>
-      </c>
-      <c r="P33" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="186" t="str">
-        <f>J33</f>
-        <v>x</v>
-      </c>
-      <c r="R33" s="211" t="s">
-        <v>237</v>
-      </c>
-      <c r="S33" s="186" t="str">
-        <f>L33</f>
-        <v>ㄌ</v>
-      </c>
-      <c r="V33" s="207" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="2:36">
-      <c r="B34">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>k</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>e</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>e</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄍ</v>
-      </c>
-      <c r="I34" s="193">
+        <v>0</v>
+      </c>
+      <c r="R54" s="219" t="str">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="J34" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>e</v>
-      </c>
-      <c r="K34" s="2" t="str" cm="1">
-        <f t="array" ref="K34" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J34,$D$26:$D$67), 0))</f>
-        <v>k</v>
-      </c>
-      <c r="L34" s="157" t="str" cm="1">
-        <f t="array" ref="L34" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J34,$F$26:$F$67), 0))</f>
-        <v>ㄍ</v>
-      </c>
-      <c r="M34" s="199" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄍ</v>
-      </c>
-      <c r="P34" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q34" s="186" t="str">
-        <f>J34</f>
-        <v>e</v>
-      </c>
-      <c r="R34" s="186" t="str">
-        <f>K34</f>
-        <v>k</v>
-      </c>
-      <c r="S34" s="186" t="str">
-        <f>L34</f>
-        <v>ㄍ</v>
-      </c>
-      <c r="V34" s="170" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(R$26:R$60, R$63:R$67) &amp; "|" &amp; _xlfn.CONCAT(S$26:S$60, S$63:S$67) &amp; "|"""</f>
-        <v>- "xlit|pbPmtTnlkgKhzcsjZCSwiuMaOoeyxB@N[WR23570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㆡㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨˋ˪ˊ˫˙|"</v>
-      </c>
-      <c r="W34" s="169"/>
-      <c r="X34" s="169"/>
-      <c r="Y34" s="169"/>
-      <c r="Z34" s="169"/>
-      <c r="AA34" s="169"/>
-      <c r="AB34" s="169"/>
-      <c r="AC34" s="169"/>
-      <c r="AD34" s="169"/>
-      <c r="AE34" s="169"/>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="169"/>
-      <c r="AI34" s="169"/>
-      <c r="AJ34" s="169"/>
-    </row>
-    <row r="35" spans="2:36">
-      <c r="B35">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>K</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>d</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>d</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄎ</v>
-      </c>
-      <c r="I35" s="193">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>d</v>
-      </c>
-      <c r="K35" s="2" t="str" cm="1">
-        <f t="array" ref="K35" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J35,$D$26:$D$67), 0))</f>
-        <v>K</v>
-      </c>
-      <c r="L35" s="157" t="str" cm="1">
-        <f t="array" ref="L35" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J35,$F$26:$F$67), 0))</f>
-        <v>ㄎ</v>
-      </c>
-      <c r="M35" s="199" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄎ</v>
-      </c>
-      <c r="P35" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="186" t="s">
-        <v>121</v>
-      </c>
-      <c r="R35" s="186" t="str">
-        <f>K40</f>
-        <v>g</v>
-      </c>
-      <c r="S35" s="211" t="str">
-        <f>L40</f>
-        <v>ㆣ</v>
-      </c>
-    </row>
-    <row r="36" spans="2:36">
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>h</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>c</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>c</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄏ</v>
-      </c>
-      <c r="I36" s="193">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="J36" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
-      </c>
-      <c r="K36" s="2" t="str" cm="1">
-        <f t="array" ref="K36" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J36,$D$26:$D$67), 0))</f>
-        <v>h</v>
-      </c>
-      <c r="L36" s="157" t="str" cm="1">
-        <f t="array" ref="L36" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J36,$F$26:$F$67), 0))</f>
-        <v>ㄏ</v>
-      </c>
-      <c r="M36" s="199" t="s">
-        <v>92</v>
-      </c>
-      <c r="N36" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄏ</v>
-      </c>
-      <c r="P36" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="186" t="str">
-        <f t="shared" ref="Q36:S37" si="11">J35</f>
-        <v>d</v>
-      </c>
-      <c r="R36" s="186" t="str">
-        <f t="shared" si="11"/>
-        <v>K</v>
-      </c>
-      <c r="S36" s="186" t="str">
-        <f t="shared" si="11"/>
-        <v>ㄎ</v>
-      </c>
-    </row>
-    <row r="37" spans="2:36">
-      <c r="B37">
-        <f t="shared" si="2"/>
+        <v>．</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="3:18">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="3:18">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="P57" s="217" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>j</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>r</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>r</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄐ</v>
-      </c>
-      <c r="I37" s="193">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="J37" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>r</v>
-      </c>
-      <c r="K37" s="2" t="str" cm="1">
-        <f t="array" ref="K37" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J37,$D$26:$D$67), 0))</f>
-        <v>j</v>
-      </c>
-      <c r="L37" s="157" t="str" cm="1">
-        <f t="array" ref="L37" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J37,$F$26:$F$67), 0))</f>
-        <v>ㄐ</v>
-      </c>
-      <c r="M37" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="N37" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄐ</v>
-      </c>
-      <c r="P37" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="186" t="str">
-        <f t="shared" si="11"/>
-        <v>c</v>
-      </c>
-      <c r="R37" s="186" t="str">
-        <f t="shared" si="11"/>
-        <v>h</v>
-      </c>
-      <c r="S37" s="186" t="str">
-        <f t="shared" si="11"/>
-        <v>ㄏ</v>
-      </c>
-    </row>
-    <row r="38" spans="2:36">
-      <c r="B38">
-        <f t="shared" si="2"/>
+      <c r="R57" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>J</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>f</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>f</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄑ</v>
-      </c>
-      <c r="I38" s="193">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="J38" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="K38" s="2" t="str" cm="1">
-        <f t="array" ref="K38" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J38,$D$26:$D$67), 0))</f>
-        <v>J</v>
-      </c>
-      <c r="L38" s="157" t="str" cm="1">
-        <f t="array" ref="L38" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J38,$F$26:$F$67), 0))</f>
-        <v>ㄑ</v>
-      </c>
-      <c r="M38" s="199" t="s">
-        <v>86</v>
-      </c>
-      <c r="N38" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄑ</v>
-      </c>
-      <c r="P38" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="186" t="str">
-        <f>J43</f>
-        <v>y</v>
-      </c>
-      <c r="R38" s="186" t="s">
-        <v>243</v>
-      </c>
-      <c r="S38" s="186" t="str">
-        <f>L43</f>
-        <v>ㄗ</v>
-      </c>
-    </row>
-    <row r="39" spans="2:36">
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>v</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄒ</v>
-      </c>
-      <c r="I39" s="193">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="J39" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>v</v>
-      </c>
-      <c r="K39" s="2" t="str" cm="1">
-        <f t="array" ref="K39" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J39,$D$26:$D$67), 0))</f>
-        <v>S</v>
-      </c>
-      <c r="L39" s="157" t="str" cm="1">
-        <f t="array" ref="L39" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J39,$F$26:$F$67), 0))</f>
-        <v>ㄒ</v>
-      </c>
-      <c r="M39" s="199" t="s">
-        <v>171</v>
-      </c>
-      <c r="N39" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄒ</v>
-      </c>
-      <c r="P39" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q39" s="186" t="str">
-        <f>J44</f>
-        <v>h</v>
-      </c>
-      <c r="R39" s="186" t="s">
-        <v>317</v>
-      </c>
-      <c r="S39" s="186" t="str">
-        <f>L44</f>
-        <v>ㄘ</v>
-      </c>
-    </row>
-    <row r="40" spans="2:36">
-      <c r="B40">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="58" spans="3:18">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="P58" s="217" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>g</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>t</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>t</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆣ</v>
-      </c>
-      <c r="I40" s="193">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="J40" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>t</v>
-      </c>
-      <c r="K40" s="2" t="str" cm="1">
-        <f t="array" ref="K40" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J40,$D$26:$D$67), 0))</f>
-        <v>g</v>
-      </c>
-      <c r="L40" s="157" t="str" cm="1">
-        <f t="array" ref="L40" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J40,$F$26:$F$67), 0))</f>
-        <v>ㆣ</v>
-      </c>
-      <c r="M40" s="199" t="s">
-        <v>93</v>
-      </c>
-      <c r="N40" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆣ</v>
-      </c>
-      <c r="P40" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="186" t="str">
-        <f>J45</f>
-        <v>n</v>
-      </c>
-      <c r="R40" s="186" t="str">
-        <f>K45</f>
-        <v>s</v>
-      </c>
-      <c r="S40" s="186" t="str">
-        <f>L45</f>
-        <v>ㄙ</v>
-      </c>
-    </row>
-    <row r="41" spans="2:36">
-      <c r="B41">
-        <f t="shared" si="2"/>
+      <c r="R58" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>q</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>g</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄫ</v>
-      </c>
-      <c r="I41" s="193">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="J41" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
-      </c>
-      <c r="K41" s="2" t="str" cm="1">
-        <f t="array" ref="K41" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J41,$D$26:$D$67), 0))</f>
-        <v>q</v>
-      </c>
-      <c r="L41" s="157" t="str" cm="1">
-        <f t="array" ref="L41" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J41,$F$26:$F$67), 0))</f>
-        <v>ㄫ</v>
-      </c>
-      <c r="M41" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="N41" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄫ</v>
-      </c>
-      <c r="P41" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="186" t="str">
-        <f>J42</f>
-        <v>b</v>
-      </c>
-      <c r="R41" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="S41" s="211" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:36">
-      <c r="B42">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>z</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
-      </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>b</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆡ</v>
-      </c>
-      <c r="I42" s="193">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="J42" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="K42" s="2" t="str" cm="1">
-        <f t="array" ref="K42" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J42,$D$26:$D$67), 0))</f>
-        <v>z</v>
-      </c>
-      <c r="L42" s="157" t="str" cm="1">
-        <f t="array" ref="L42" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J42,$F$26:$F$67), 0))</f>
-        <v>ㆡ</v>
-      </c>
-      <c r="M42" s="199" t="s">
-        <v>72</v>
-      </c>
-      <c r="N42" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆡ</v>
-      </c>
-      <c r="P42" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q42" s="186" t="str">
-        <f xml:space="preserve"> UPPER(Q38)</f>
-        <v>Y</v>
-      </c>
-      <c r="R42" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="S42" s="186" t="str">
-        <f>L37</f>
-        <v>ㄐ</v>
-      </c>
-    </row>
-    <row r="43" spans="2:36">
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>c</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>y</v>
-      </c>
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>y</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄗ</v>
-      </c>
-      <c r="I43" s="193">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="J43" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="K43" s="2" t="str" cm="1">
-        <f t="array" ref="K43" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J43,$D$26:$D$67), 0))</f>
-        <v>c</v>
-      </c>
-      <c r="L43" s="157" t="str" cm="1">
-        <f t="array" ref="L43" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J43,$F$26:$F$67), 0))</f>
-        <v>ㄗ</v>
-      </c>
-      <c r="M43" s="199" t="s">
-        <v>67</v>
-      </c>
-      <c r="N43" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄗ</v>
-      </c>
-      <c r="P43" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q43" s="186" t="str">
-        <f t="shared" ref="Q43:Q44" si="12" xml:space="preserve"> UPPER(Q39)</f>
-        <v>H</v>
-      </c>
-      <c r="R43" s="212" t="s">
-        <v>319</v>
-      </c>
-      <c r="S43" s="186" t="str">
-        <f>L38</f>
-        <v>ㄑ</v>
-      </c>
-    </row>
-    <row r="44" spans="2:36">
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>h</v>
-      </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>h</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄘ</v>
-      </c>
-      <c r="I44" s="193">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="J44" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>h</v>
-      </c>
-      <c r="K44" s="2" t="str" cm="1">
-        <f t="array" ref="K44" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J44,$D$26:$D$67), 0))</f>
-        <v>C</v>
-      </c>
-      <c r="L44" s="157" t="str" cm="1">
-        <f t="array" ref="L44" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J44,$F$26:$F$67), 0))</f>
-        <v>ㄘ</v>
-      </c>
-      <c r="M44" s="199" t="s">
-        <v>207</v>
-      </c>
-      <c r="N44" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄘ</v>
-      </c>
-      <c r="P44" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="186" t="str">
-        <f t="shared" si="12"/>
-        <v>N</v>
-      </c>
-      <c r="R44" s="186" t="str">
-        <f>K39</f>
-        <v>S</v>
-      </c>
-      <c r="S44" s="186" t="str">
-        <f>L39</f>
-        <v>ㄒ</v>
-      </c>
-    </row>
-    <row r="45" spans="2:36">
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄙ</v>
-      </c>
-      <c r="I45" s="193">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="J45" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
-      </c>
-      <c r="K45" s="2" t="str" cm="1">
-        <f t="array" ref="K45" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J45,$D$26:$D$67), 0))</f>
-        <v>s</v>
-      </c>
-      <c r="L45" s="157" t="str" cm="1">
-        <f t="array" ref="L45" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J45,$F$26:$F$67), 0))</f>
-        <v>ㄙ</v>
-      </c>
-      <c r="M45" s="199" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄙ</v>
-      </c>
-      <c r="P45" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="213" t="s">
-        <v>309</v>
-      </c>
-      <c r="R45" s="214" t="s">
-        <v>320</v>
-      </c>
-      <c r="S45" s="186" t="str">
-        <f>N41</f>
-        <v>ㄫ</v>
-      </c>
-      <c r="T45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="2:36">
-      <c r="B46">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="59" spans="3:18">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="P59" s="217" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>i</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>u</v>
-      </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>u</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄧ</v>
-      </c>
-      <c r="I46" s="193">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="J46" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>u</v>
-      </c>
-      <c r="K46" s="2" t="str" cm="1">
-        <f t="array" ref="K46" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J46,$D$26:$D$67), 0))</f>
-        <v>i</v>
-      </c>
-      <c r="L46" s="157" t="str" cm="1">
-        <f t="array" ref="L46" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J46,$F$26:$F$67), 0))</f>
-        <v>ㄧ</v>
-      </c>
-      <c r="M46" s="199" t="s">
-        <v>181</v>
-      </c>
-      <c r="N46" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄧ</v>
-      </c>
-      <c r="P46" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="186" t="str">
-        <f t="shared" ref="Q46:S47" si="13">J46</f>
-        <v>u</v>
-      </c>
-      <c r="R46" s="186" t="str">
-        <f t="shared" si="13"/>
-        <v>i</v>
-      </c>
-      <c r="S46" s="186" t="str">
-        <f t="shared" si="13"/>
-        <v>ㄧ</v>
-      </c>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="2:36">
-      <c r="B47">
-        <f t="shared" si="2"/>
+      <c r="R59" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>u</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>j</v>
-      </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>j</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄨ</v>
-      </c>
-      <c r="I47" s="193">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="J47" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>j</v>
-      </c>
-      <c r="K47" s="2" t="str" cm="1">
-        <f t="array" ref="K47" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J47,$D$26:$D$67), 0))</f>
-        <v>u</v>
-      </c>
-      <c r="L47" s="157" t="str" cm="1">
-        <f t="array" ref="L47" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J47,$F$26:$F$67), 0))</f>
-        <v>ㄨ</v>
-      </c>
-      <c r="M47" s="199" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄨ</v>
-      </c>
-      <c r="P47" s="1">
-        <v>22</v>
-      </c>
-      <c r="Q47" s="186" t="str">
-        <f t="shared" si="13"/>
-        <v>j</v>
-      </c>
-      <c r="R47" s="186" t="str">
-        <f t="shared" si="13"/>
-        <v>u</v>
-      </c>
-      <c r="S47" s="186" t="str">
-        <f t="shared" si="13"/>
-        <v>ㄨ</v>
-      </c>
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="2:36">
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆬ</v>
-      </c>
-      <c r="I48" s="193">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="J48" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
-      </c>
-      <c r="K48" s="2" t="str" cm="1">
-        <f t="array" ref="K48" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J48,$D$26:$D$67), 0))</f>
-        <v>B</v>
-      </c>
-      <c r="L48" s="157" t="str" cm="1">
-        <f t="array" ref="L48" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J48,$F$26:$F$67), 0))</f>
-        <v>ㆬ</v>
-      </c>
-      <c r="M48" s="199" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆬ</v>
-      </c>
-      <c r="P48" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="186" t="str">
-        <f t="shared" ref="Q48:Q53" si="14">J48</f>
-        <v>m</v>
-      </c>
-      <c r="R48" s="213" t="s">
-        <v>321</v>
-      </c>
-      <c r="S48" s="211" t="s">
-        <v>36</v>
-      </c>
-      <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="2:29">
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>a</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄚ</v>
-      </c>
-      <c r="I49" s="193">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="J49" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K49" s="2" t="str" cm="1">
-        <f t="array" ref="K49" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J49,$D$26:$D$67), 0))</f>
-        <v>a</v>
-      </c>
-      <c r="L49" s="157" t="str" cm="1">
-        <f t="array" ref="L49" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J49,$F$26:$F$67), 0))</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="M49" s="199" t="s">
-        <v>39</v>
-      </c>
-      <c r="N49" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄚ</v>
-      </c>
-      <c r="P49" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="186" t="str">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="R49" s="186" t="str">
-        <f>K49</f>
-        <v>a</v>
-      </c>
-      <c r="S49" s="186" t="str">
-        <f>L49</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="2:29">
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>o</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>i</v>
-      </c>
-      <c r="F50" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>i</v>
-      </c>
-      <c r="G50" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆦ</v>
-      </c>
-      <c r="I50" s="193">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="J50" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>i</v>
-      </c>
-      <c r="K50" s="2" t="str" cm="1">
-        <f t="array" ref="K50" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J50,$D$26:$D$67), 0))</f>
-        <v>o</v>
-      </c>
-      <c r="L50" s="157" t="str" cm="1">
-        <f t="array" ref="L50" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J50,$F$26:$F$67), 0))</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="M50" s="199" t="s">
-        <v>36</v>
-      </c>
-      <c r="N50" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆦ</v>
-      </c>
-      <c r="P50" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="186" t="str">
-        <f t="shared" si="14"/>
-        <v>i</v>
-      </c>
-      <c r="R50" s="213" t="s">
-        <v>118</v>
-      </c>
-      <c r="S50" s="186" t="str">
-        <f>L50</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="2:29">
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ø</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>k</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>k</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄜ</v>
-      </c>
-      <c r="I51" s="193">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="J51" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>k</v>
-      </c>
-      <c r="K51" s="2" t="str" cm="1">
-        <f t="array" ref="K51" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J51,$D$26:$D$67), 0))</f>
-        <v>ø</v>
-      </c>
-      <c r="L51" s="157" t="str" cm="1">
-        <f t="array" ref="L51" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J51,$F$26:$F$67), 0))</f>
-        <v>ㄜ</v>
-      </c>
-      <c r="M51" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄜ</v>
-      </c>
-      <c r="P51" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q51" s="186" t="str">
-        <f t="shared" si="14"/>
-        <v>k</v>
-      </c>
-      <c r="R51" s="213" t="s">
-        <v>254</v>
-      </c>
-      <c r="S51" s="186" t="str">
-        <f>L51</f>
-        <v>ㄜ</v>
-      </c>
-      <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="2:29">
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>,</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="G52" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆰ</v>
-      </c>
-      <c r="I52" s="193">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="J52" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-      <c r="K52" s="2" t="str" cm="1">
-        <f t="array" ref="K52" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J52,$D$26:$D$67), 0))</f>
-        <v>M</v>
-      </c>
-      <c r="L52" s="157" t="str" cm="1">
-        <f t="array" ref="L52" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J52,$F$26:$F$67), 0))</f>
-        <v>ㆰ</v>
-      </c>
-      <c r="M52" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="N52" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆰ</v>
-      </c>
-      <c r="P52" s="1">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="186" t="str">
-        <f t="shared" si="14"/>
-        <v>,</v>
-      </c>
-      <c r="R52" s="186" t="s">
-        <v>255</v>
-      </c>
-      <c r="S52" s="186" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29">
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>I</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄞ</v>
-      </c>
-      <c r="I53" s="193">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="J53" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K53" s="2" t="str" cm="1">
-        <f t="array" ref="K53" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J53,$D$26:$D$67), 0))</f>
-        <v>I</v>
-      </c>
-      <c r="L53" s="157" t="str" cm="1">
-        <f t="array" ref="L53" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J53,$F$26:$F$67), 0))</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="M53" s="199" t="s">
-        <v>230</v>
-      </c>
-      <c r="N53" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄞ</v>
-      </c>
-      <c r="P53" s="1">
-        <v>28</v>
-      </c>
-      <c r="Q53" s="186" t="str">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="R53" s="213" t="s">
-        <v>322</v>
-      </c>
-      <c r="S53" s="186" t="str">
-        <f>L53</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="2:29">
-      <c r="B54">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>e</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>o</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>o</v>
-      </c>
-      <c r="G54" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆤ</v>
-      </c>
-      <c r="I54" s="193">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="J54" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>o</v>
-      </c>
-      <c r="K54" s="2" t="str" cm="1">
-        <f t="array" ref="K54" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J54,$D$26:$D$67), 0))</f>
-        <v>e</v>
-      </c>
-      <c r="L54" s="157" t="str" cm="1">
-        <f t="array" ref="L54" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J54,$F$26:$F$67), 0))</f>
-        <v>ㆤ</v>
-      </c>
-      <c r="M54" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="N54" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆤ</v>
-      </c>
-      <c r="P54" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q54" s="186" t="str">
-        <f t="shared" ref="Q54:Q60" si="15">J55</f>
-        <v>l</v>
-      </c>
-      <c r="R54" s="213" t="s">
-        <v>323</v>
-      </c>
-      <c r="S54" s="186" t="str">
-        <f>L55</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="2:29">
-      <c r="B55">
-        <f xml:space="preserve"> ROW() - 25</f>
-        <v>30</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f xml:space="preserve"> MID($D$10, $B55, 1)</f>
-        <v>U</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f xml:space="preserve"> MID($D$11, $B55, 1)</f>
-        <v>l</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>l</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄠ</v>
-      </c>
-      <c r="I55" s="193">
-        <f xml:space="preserve"> ROW() - 25</f>
-        <v>30</v>
-      </c>
-      <c r="J55" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>l</v>
-      </c>
-      <c r="K55" s="2" t="str" cm="1">
-        <f t="array" ref="K55" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J55,$D$26:$D$67), 0))</f>
-        <v>U</v>
-      </c>
-      <c r="L55" s="157" t="str" cm="1">
-        <f t="array" ref="L55" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J55,$F$26:$F$67), 0))</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="M55" s="199" t="s">
-        <v>22</v>
-      </c>
-      <c r="N55" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄠ</v>
-      </c>
-      <c r="P55" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q55" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>.</v>
-      </c>
-      <c r="R55" s="211" t="s">
-        <v>296</v>
-      </c>
-      <c r="S55" s="213" t="s">
-        <v>286</v>
-      </c>
-      <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="2:29">
-      <c r="B56">
-        <f t="shared" ref="B56:B67" si="16" xml:space="preserve"> ROW() - 25</f>
-        <v>31</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" ref="C56:C67" si="17" xml:space="preserve"> MID($D$10, $B56, 1)</f>
-        <v>Y</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" ref="D56:D67" si="18" xml:space="preserve"> MID($D$11, $B56, 1)</f>
-        <v>.</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>.</v>
-      </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆲ</v>
-      </c>
-      <c r="I56" s="193">
-        <f t="shared" ref="I56:I67" si="19" xml:space="preserve"> ROW() - 25</f>
-        <v>31</v>
-      </c>
-      <c r="J56" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K56" s="2" t="str" cm="1">
-        <f t="array" ref="K56" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J56,$D$26:$D$67), 0))</f>
-        <v>Y</v>
-      </c>
-      <c r="L56" s="157" t="str" cm="1">
-        <f t="array" ref="L56" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J56,$F$26:$F$67), 0))</f>
-        <v>ㆲ</v>
-      </c>
-      <c r="M56" s="199" t="s">
-        <v>13</v>
-      </c>
-      <c r="N56" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆲ</v>
-      </c>
-      <c r="P56" s="1">
-        <v>31</v>
-      </c>
-      <c r="Q56" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="213" t="s">
-        <v>324</v>
-      </c>
-      <c r="S56" s="186" t="str">
-        <f>L57</f>
-        <v>ㄢ</v>
-      </c>
-      <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="2:29">
-      <c r="B57">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>L</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄢ</v>
-      </c>
-      <c r="I57" s="193">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="J57" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="str" cm="1">
-        <f t="array" ref="K57" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J57,$D$26:$D$67), 0))</f>
-        <v>L</v>
-      </c>
-      <c r="L57" s="157" t="str" cm="1">
-        <f t="array" ref="L57" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J57,$F$26:$F$67), 0))</f>
-        <v>ㄢ</v>
-      </c>
-      <c r="M57" s="199" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄢ</v>
-      </c>
-      <c r="P57" s="1">
-        <v>32</v>
-      </c>
-      <c r="Q57" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>p</v>
-      </c>
-      <c r="R57" s="213" t="s">
-        <v>325</v>
-      </c>
-      <c r="S57" s="186" t="str">
-        <f>L58</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="2:29">
-      <c r="B58">
-        <f t="shared" si="16"/>
-        <v>33</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>D</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>p</v>
-      </c>
-      <c r="F58" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>p</v>
-      </c>
-      <c r="G58" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄣ</v>
-      </c>
-      <c r="I58" s="193">
-        <f t="shared" si="19"/>
-        <v>33</v>
-      </c>
-      <c r="J58" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
-      </c>
-      <c r="K58" s="2" t="str" cm="1">
-        <f t="array" ref="K58" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J58,$D$26:$D$67), 0))</f>
-        <v>D</v>
-      </c>
-      <c r="L58" s="157" t="str" cm="1">
-        <f t="array" ref="L58" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J58,$F$26:$F$67), 0))</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="M58" s="199" t="s">
-        <v>286</v>
-      </c>
-      <c r="N58" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄣ</v>
-      </c>
-      <c r="P58" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q58" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>;</v>
-      </c>
-      <c r="R58" s="213" t="s">
-        <v>326</v>
-      </c>
-      <c r="S58" s="186" t="str">
-        <f>L59</f>
-        <v>ㄤ</v>
-      </c>
-    </row>
-    <row r="59" spans="2:29">
-      <c r="B59">
-        <f t="shared" si="16"/>
-        <v>34</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Q</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>;</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>;</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㄤ</v>
-      </c>
-      <c r="I59" s="193">
-        <f t="shared" si="19"/>
-        <v>34</v>
-      </c>
-      <c r="J59" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>;</v>
-      </c>
-      <c r="K59" s="2" t="str" cm="1">
-        <f t="array" ref="K59" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J59,$D$26:$D$67), 0))</f>
-        <v>Q</v>
-      </c>
-      <c r="L59" s="157" t="str" cm="1">
-        <f t="array" ref="L59" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J59,$F$26:$F$67), 0))</f>
-        <v>ㄤ</v>
-      </c>
-      <c r="N59" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㄤ</v>
-      </c>
-      <c r="P59" s="1">
-        <v>34</v>
-      </c>
-      <c r="Q59" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>/</v>
-      </c>
-      <c r="R59" s="213" t="s">
-        <v>327</v>
-      </c>
-      <c r="S59" s="186" t="str">
-        <f>L60</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="2:29">
-      <c r="B60">
-        <f t="shared" si="16"/>
-        <v>35</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>G</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>/</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>/</v>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ㆭ</v>
-      </c>
-      <c r="I60" s="193">
-        <f t="shared" si="19"/>
-        <v>35</v>
-      </c>
-      <c r="J60" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>/</v>
-      </c>
-      <c r="K60" s="2" t="str" cm="1">
-        <f t="array" ref="K60" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J60,$D$26:$D$67), 0))</f>
-        <v>G</v>
-      </c>
-      <c r="L60" s="157" t="str" cm="1">
-        <f t="array" ref="L60" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J60,$F$26:$F$67), 0))</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="N60" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ㆭ</v>
-      </c>
-      <c r="P60" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q60" s="186" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="R60" s="213" t="s">
-        <v>329</v>
-      </c>
-      <c r="S60" s="211" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="2:29">
-      <c r="B61">
-        <f t="shared" si="16"/>
-        <v>36</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>N</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ｎ</v>
-      </c>
-      <c r="I61" s="193">
-        <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="J61" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="K61" s="2" t="str" cm="1">
-        <f t="array" ref="K61" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J61,$D$26:$D$67), 0))</f>
-        <v>N</v>
-      </c>
-      <c r="L61" s="157" t="str" cm="1">
-        <f t="array" ref="L61" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J61,$F$26:$F$67), 0))</f>
-        <v>ｎ</v>
-      </c>
-      <c r="N61" s="200" t="str">
-        <f t="shared" si="8"/>
-        <v>ｎ</v>
-      </c>
-      <c r="P61" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29">
-      <c r="B62">
-        <f t="shared" si="16"/>
-        <v>37</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="D62" s="219" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F62" s="219" t="str">
-        <f xml:space="preserve"> CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G62" s="255" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="193">
-        <f t="shared" si="19"/>
-        <v>37</v>
-      </c>
-      <c r="J62" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K62" s="2" t="str" cm="1">
-        <f t="array" ref="K62" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J62,$D$26:$D$67), 0))</f>
-        <v>1</v>
-      </c>
-      <c r="L62" s="157" t="str" cm="1">
-        <f t="array" ref="L62" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J62,$F$26:$F$67), 0))</f>
-        <v>ˉ</v>
-      </c>
-      <c r="P62" s="1">
-        <v>37</v>
-      </c>
-      <c r="Q62" s="186" t="str">
-        <f t="shared" ref="Q62:R67" si="20">J62</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R62" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S62" s="219" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29">
-      <c r="B63">
-        <f t="shared" si="16"/>
-        <v>38</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B62, 1)</f>
-        <v>4</v>
-      </c>
-      <c r="G63" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B62, 1)</f>
-        <v>ˋ</v>
-      </c>
-      <c r="I63" s="193">
-        <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="J63" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K63" s="2" t="str" cm="1">
-        <f t="array" ref="K63" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J63,$D$26:$D$67), 0))</f>
-        <v>2</v>
-      </c>
-      <c r="L63" s="157" t="str" cm="1">
-        <f t="array" ref="L63" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J63,$F$26:$F$67), 0))</f>
-        <v>ˋ</v>
-      </c>
-      <c r="P63" s="1">
-        <v>38</v>
-      </c>
-      <c r="Q63" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="R63" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S63" s="219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29">
-      <c r="B64">
-        <f t="shared" si="16"/>
-        <v>39</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B63, 1)</f>
-        <v>3</v>
-      </c>
-      <c r="G64" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B63, 1)</f>
-        <v>˪</v>
-      </c>
-      <c r="I64" s="193">
-        <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="J64" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K64" s="2" t="str" cm="1">
-        <f t="array" ref="K64" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J64,$D$26:$D$67), 0))</f>
-        <v>3</v>
-      </c>
-      <c r="L64" s="157" t="str" cm="1">
-        <f t="array" ref="L64" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J64,$F$26:$F$67), 0))</f>
-        <v>˪</v>
-      </c>
-      <c r="P64" s="1">
-        <v>39</v>
-      </c>
-      <c r="Q64" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="R64" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="S64" s="219" t="s">
-        <v>268</v>
-      </c>
-      <c r="V64" s="215" t="str">
-        <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$69:Q$78, Q$62:Q$67) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657'</v>
-      </c>
-      <c r="W64" s="216"/>
-      <c r="X64" s="216"/>
-      <c r="Y64" s="216"/>
-      <c r="Z64" s="216"/>
-      <c r="AA64" s="216"/>
-      <c r="AB64" s="216"/>
-      <c r="AC64" s="169"/>
-    </row>
-    <row r="65" spans="2:37">
-      <c r="B65">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B64, 1)</f>
-        <v>6</v>
-      </c>
-      <c r="G65" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B64, 1)</f>
-        <v>ˊ</v>
-      </c>
-      <c r="I65" s="193">
-        <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="J65" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K65" s="2" t="str" cm="1">
-        <f t="array" ref="K65" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J65,$D$26:$D$67), 0))</f>
-        <v>5</v>
-      </c>
-      <c r="L65" s="157" t="str" cm="1">
-        <f t="array" ref="L65" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J65,$F$26:$F$67), 0))</f>
-        <v>ˊ</v>
-      </c>
-      <c r="P65" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q65" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="R65" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="S65" s="219" t="s">
-        <v>5</v>
-      </c>
-      <c r="V65" s="215" t="str">
-        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$69:Q$78) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:'</v>
-      </c>
-      <c r="W65" s="216"/>
-      <c r="X65" s="216"/>
-      <c r="Y65" s="216"/>
-      <c r="Z65" s="216"/>
-      <c r="AA65" s="216"/>
-      <c r="AB65" s="216"/>
-      <c r="AC65" s="169"/>
-    </row>
-    <row r="66" spans="2:37">
-      <c r="B66">
-        <f t="shared" si="16"/>
-        <v>41</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B65, 1)</f>
-        <v>5</v>
-      </c>
-      <c r="G66" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B65, 1)</f>
-        <v>˫</v>
-      </c>
-      <c r="I66" s="193">
-        <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="J66" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K66" s="2" t="str" cm="1">
-        <f t="array" ref="K66" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J66,$D$26:$D$67), 0))</f>
-        <v>7</v>
-      </c>
-      <c r="L66" s="157" t="str" cm="1">
-        <f t="array" ref="L66" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J66,$F$26:$F$67), 0))</f>
-        <v>˫</v>
-      </c>
-      <c r="P66" s="1">
-        <v>41</v>
-      </c>
-      <c r="Q66" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="R66" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="S66" s="219" t="s">
-        <v>269</v>
-      </c>
-      <c r="V66" s="215" t="str">
-        <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(Q$62:Q$67) &amp; "'"</f>
-        <v xml:space="preserve">  finals:   ' 43657'</v>
-      </c>
-      <c r="W66" s="216"/>
-      <c r="X66" s="216"/>
-      <c r="Y66" s="216"/>
-      <c r="Z66" s="216"/>
-      <c r="AA66" s="216"/>
-      <c r="AB66" s="216"/>
-      <c r="AC66" s="169"/>
-    </row>
-    <row r="67" spans="2:37">
-      <c r="B67">
-        <f t="shared" si="16"/>
-        <v>42</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B66, 1)</f>
-        <v>7</v>
-      </c>
-      <c r="G67" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B66, 1)</f>
-        <v>．</v>
-      </c>
-      <c r="I67" s="193">
-        <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="J67" s="194" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K67" s="2" t="str" cm="1">
-        <f t="array" ref="K67" xml:space="preserve"> INDEX($C$26:$C$67, MATCH(TRUE, EXACT($J67,$D$26:$D$67), 0))</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="157" t="str" cm="1">
-        <f t="array" ref="L67" xml:space="preserve"> INDEX($G$26:$G$67, MATCH(TRUE, EXACT($J67,$F$26:$F$67), 0))</f>
-        <v>．</v>
-      </c>
-      <c r="P67" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q67" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="R67" s="186" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="219" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:37">
+    </row>
+    <row r="60" spans="3:18">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="3:18">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="3:18">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:18">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="3:18">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="3:4">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="F68" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B67, 1)</f>
-        <v/>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B67, 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:37">
+    </row>
+    <row r="69" spans="3:4">
       <c r="C69" s="1"/>
-      <c r="Q69" s="209" t="s">
-        <v>68</v>
-      </c>
-      <c r="R69" s="210" t="s">
-        <v>304</v>
-      </c>
-      <c r="S69" s="210" t="s">
-        <v>74</v>
-      </c>
-      <c r="V69" s="207" t="str">
-        <f>$B$2</f>
-        <v>注音編碼與按鍵對映</v>
-      </c>
-    </row>
-    <row r="70" spans="2:37" ht="26.25">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="3:4">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="Q70" s="209" t="s">
-        <v>70</v>
-      </c>
-      <c r="R70" s="210" t="s">
-        <v>301</v>
-      </c>
-      <c r="S70" s="210" t="s">
-        <v>69</v>
-      </c>
-      <c r="V70" s="208" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(R$26:R$60, R$69:R$78, R$62:R$67) &amp; "|" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$69:Q$78, Q$62:Q$67) &amp; "|"""</f>
-        <v>- "xlit|pbPmtTnlkgKhzcsjZCSwiuMaOoeyxB@N[WRIUAQEYX}{]123570|1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657|"</v>
-      </c>
-      <c r="W70" s="169"/>
-      <c r="X70" s="169"/>
-      <c r="Y70" s="169"/>
-      <c r="Z70" s="169"/>
-      <c r="AA70" s="169"/>
-      <c r="AB70" s="169"/>
-      <c r="AC70" s="169"/>
-      <c r="AD70" s="169"/>
-      <c r="AE70" s="169"/>
-      <c r="AF70" s="169"/>
-      <c r="AG70" s="169"/>
-      <c r="AH70" s="169"/>
-      <c r="AI70" s="169"/>
-      <c r="AJ70" s="169"/>
-      <c r="AK70" s="169"/>
-    </row>
-    <row r="71" spans="2:37">
+    </row>
+    <row r="71" spans="3:4">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="Q71" s="209" t="s">
-        <v>65</v>
-      </c>
-      <c r="R71" s="210" t="s">
-        <v>119</v>
-      </c>
-      <c r="S71" s="210" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:37">
+    </row>
+    <row r="72" spans="3:4">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="L72" s="157"/>
-      <c r="Q72" s="209" t="s">
-        <v>61</v>
-      </c>
-      <c r="R72" s="210" t="s">
-        <v>331</v>
-      </c>
-      <c r="S72" s="210" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="2:37">
+    </row>
+    <row r="73" spans="3:4">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="Q73" s="209" t="s">
-        <v>53</v>
-      </c>
-      <c r="R73" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="S73" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="V73" s="207" t="str">
-        <f>$B$14</f>
-        <v>按鍵與注音符號對映</v>
-      </c>
-    </row>
-    <row r="74" spans="2:37">
+    </row>
+    <row r="74" spans="3:4">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="Q74" s="209" t="s">
-        <v>48</v>
-      </c>
-      <c r="R74" s="210" t="s">
-        <v>332</v>
-      </c>
-      <c r="S74" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="V74" s="218" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(Q$26:Q$60, Q$69:Q$78, Q$63:Q$67) &amp; "|" &amp; _xlfn.CONCAT(S$26:S$60, S$69:S$78, S$63:S$67) &amp; "|"""</f>
-        <v>- "xlit|1!qa2wsxeEdcyhnbYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㆡㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙|"</v>
-      </c>
-      <c r="W74" s="169"/>
-      <c r="X74" s="169"/>
-      <c r="Y74" s="169"/>
-      <c r="Z74" s="169"/>
-      <c r="AA74" s="169"/>
-      <c r="AB74" s="169"/>
-      <c r="AC74" s="169"/>
-      <c r="AD74" s="169"/>
-      <c r="AE74" s="169"/>
-      <c r="AF74" s="169"/>
-      <c r="AG74" s="169"/>
-      <c r="AH74" s="169"/>
-      <c r="AI74" s="169"/>
-      <c r="AJ74" s="169"/>
-      <c r="AK74" s="169"/>
-    </row>
-    <row r="75" spans="2:37">
+    </row>
+    <row r="75" spans="3:4">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="Q75" s="209" t="s">
-        <v>42</v>
-      </c>
-      <c r="R75" s="210" t="s">
-        <v>333</v>
-      </c>
-      <c r="S75" s="210" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:37">
+    </row>
+    <row r="76" spans="3:4">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="Q76" s="217" t="s">
-        <v>14</v>
-      </c>
-      <c r="R76" s="217" t="s">
-        <v>12</v>
-      </c>
-      <c r="S76" s="217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:37">
+    </row>
+    <row r="77" spans="3:4">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="Q77" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="R77" s="217" t="s">
-        <v>15</v>
-      </c>
-      <c r="S77" s="217" t="s">
-        <v>16</v>
-      </c>
-      <c r="V77" s="207" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="78" spans="2:37">
+    </row>
+    <row r="78" spans="3:4">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="Q78" s="217" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="217" t="s">
-        <v>21</v>
-      </c>
-      <c r="S78" s="217" t="s">
-        <v>22</v>
-      </c>
-      <c r="V78" s="218" t="str">
-        <f xml:space="preserve"> "- ""xlit|" &amp; _xlfn.CONCAT(R$26:R$60, R$69:R$78, R$63:R$67) &amp; "|" &amp; _xlfn.CONCAT(S$26:S$60, S$69:S$78, S$63:S$67) &amp; "|"""</f>
-        <v>- "xlit|pbPmtTnlkgKhzcsjZCSwiuMaOoeyxB@N[WRIUAQEYX}{]23570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㆡㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙|"</v>
-      </c>
-      <c r="W78" s="169"/>
-      <c r="X78" s="169"/>
-      <c r="Y78" s="169"/>
-      <c r="Z78" s="169"/>
-      <c r="AA78" s="169"/>
-      <c r="AB78" s="169"/>
-      <c r="AC78" s="169"/>
-      <c r="AD78" s="169"/>
-      <c r="AE78" s="169"/>
-      <c r="AF78" s="169"/>
-      <c r="AG78" s="169"/>
-      <c r="AH78" s="169"/>
-      <c r="AI78" s="169"/>
-      <c r="AJ78" s="169"/>
-      <c r="AK78" s="169"/>
-    </row>
-    <row r="79" spans="2:37">
+    </row>
+    <row r="79" spans="3:4">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:37">
+    <row r="80" spans="3:4">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
@@ -14650,90 +14312,6 @@
     <row r="105" spans="3:4">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14756,10 +14334,10 @@
     <col min="12" max="12" width="8.796875" style="195"/>
     <col min="13" max="13" width="6.8984375" style="195" customWidth="1"/>
     <col min="15" max="15" width="8.796875" style="183"/>
-    <col min="21" max="21" width="8.796875" style="245"/>
+    <col min="21" max="21" width="8.796875" style="224"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="23.25">
+    <row r="2" spans="2:21" ht="25.5">
       <c r="B2" s="190" t="s">
         <v>314</v>
       </c>
@@ -14780,13 +14358,13 @@
       <c r="L4" s="196"/>
       <c r="M4" s="196"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="251"/>
+      <c r="O4" s="230"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="246"/>
+      <c r="U4" s="225"/>
     </row>
     <row r="5" spans="2:21">
       <c r="I5" s="1"/>
@@ -14860,7 +14438,7 @@
       <c r="L9" s="157"/>
       <c r="M9" s="157"/>
     </row>
-    <row r="10" spans="2:21" ht="26.25">
+    <row r="10" spans="2:21" ht="27.75">
       <c r="B10" t="s">
         <v>316</v>
       </c>
@@ -14882,10 +14460,10 @@
       <c r="L10" s="197"/>
       <c r="M10" s="197"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="252"/>
+      <c r="O10" s="231"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:21" ht="26.25">
+    <row r="11" spans="2:21" ht="27.75">
       <c r="B11" t="s">
         <v>312</v>
       </c>
@@ -14907,10 +14485,10 @@
       <c r="L11" s="198"/>
       <c r="M11" s="198"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="253"/>
+      <c r="O11" s="232"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="14" spans="2:21" ht="23.25">
+    <row r="14" spans="2:21" ht="25.5">
       <c r="B14" s="190" t="s">
         <v>313</v>
       </c>
@@ -14931,13 +14509,13 @@
       <c r="L16" s="196"/>
       <c r="M16" s="196"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="251"/>
+      <c r="O16" s="230"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="246"/>
+      <c r="U16" s="225"/>
     </row>
     <row r="17" spans="2:37">
       <c r="I17" s="1"/>
@@ -15011,7 +14589,7 @@
       <c r="L21" s="157"/>
       <c r="M21" s="157"/>
     </row>
-    <row r="22" spans="2:37" ht="26.25">
+    <row r="22" spans="2:37" ht="27.75">
       <c r="B22" t="s">
         <v>312</v>
       </c>
@@ -15033,10 +14611,10 @@
       <c r="L22" s="197"/>
       <c r="M22" s="197"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="252"/>
+      <c r="O22" s="231"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:37" ht="26.25">
+    <row r="23" spans="2:37" ht="27.75">
       <c r="B23" t="s">
         <v>153</v>
       </c>
@@ -15058,7 +14636,7 @@
       <c r="L23" s="198"/>
       <c r="M23" s="198"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="253"/>
+      <c r="O23" s="232"/>
       <c r="P23" s="3"/>
     </row>
     <row r="25" spans="2:37">
@@ -15098,7 +14676,7 @@
         <v>注音編碼與按鍵對映</v>
       </c>
     </row>
-    <row r="26" spans="2:37" ht="26.25">
+    <row r="26" spans="2:37" ht="27.75">
       <c r="B26">
         <f xml:space="preserve"> ROW() - 25</f>
         <v>1</v>
@@ -15218,15 +14796,15 @@
         <v>2</v>
       </c>
       <c r="R27" s="186" t="str">
-        <f>J27</f>
+        <f t="shared" ref="R27:T28" si="8">J27</f>
         <v>!</v>
       </c>
       <c r="S27" s="186" t="str">
-        <f>K27</f>
+        <f t="shared" si="8"/>
         <v>b</v>
       </c>
       <c r="T27" s="186" t="str">
-        <f>L27</f>
+        <f t="shared" si="8"/>
         <v>ㆠ</v>
       </c>
     </row>
@@ -15275,15 +14853,15 @@
         <v>3</v>
       </c>
       <c r="R28" s="186" t="str">
-        <f>J28</f>
+        <f t="shared" si="8"/>
         <v>q</v>
       </c>
       <c r="S28" s="186" t="str">
-        <f>K28</f>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="T28" s="186" t="str">
-        <f>L28</f>
+        <f t="shared" si="8"/>
         <v>ㄆ</v>
       </c>
     </row>
@@ -15335,11 +14913,11 @@
         <v>252</v>
       </c>
       <c r="S29" s="186" t="str">
-        <f>K29</f>
+        <f t="shared" ref="S29:T32" si="9">K29</f>
         <v>m</v>
       </c>
       <c r="T29" s="211" t="str">
-        <f>L29</f>
+        <f t="shared" si="9"/>
         <v>ㄇ</v>
       </c>
       <c r="W29" s="207" t="str">
@@ -15392,15 +14970,15 @@
         <v>5</v>
       </c>
       <c r="R30" s="186" t="str">
-        <f>J30</f>
+        <f t="shared" ref="R30:R36" si="10">J30</f>
         <v>2</v>
       </c>
       <c r="S30" s="186" t="str">
-        <f>K30</f>
+        <f t="shared" si="9"/>
         <v>t</v>
       </c>
       <c r="T30" s="186" t="str">
-        <f>L30</f>
+        <f t="shared" si="9"/>
         <v>ㄉ</v>
       </c>
       <c r="W30" s="170" t="str">
@@ -15467,15 +15045,15 @@
         <v>6</v>
       </c>
       <c r="R31" s="186" t="str">
-        <f>J31</f>
+        <f t="shared" si="10"/>
         <v>w</v>
       </c>
       <c r="S31" s="186" t="str">
-        <f>K31</f>
+        <f t="shared" si="9"/>
         <v>T</v>
       </c>
       <c r="T31" s="186" t="str">
-        <f>L31</f>
+        <f t="shared" si="9"/>
         <v>ㄊ</v>
       </c>
     </row>
@@ -15524,15 +15102,15 @@
         <v>7</v>
       </c>
       <c r="R32" s="186" t="str">
-        <f>J32</f>
+        <f t="shared" si="10"/>
         <v>s</v>
       </c>
       <c r="S32" s="186" t="str">
-        <f>K32</f>
+        <f t="shared" si="9"/>
         <v>n</v>
       </c>
       <c r="T32" s="186" t="str">
-        <f>L32</f>
+        <f t="shared" si="9"/>
         <v>ㄋ</v>
       </c>
     </row>
@@ -15581,7 +15159,7 @@
         <v>8</v>
       </c>
       <c r="R33" s="186" t="str">
-        <f>J33</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="S33" s="211" t="s">
@@ -15640,7 +15218,7 @@
         <v>9</v>
       </c>
       <c r="R34" s="186" t="str">
-        <f>J34</f>
+        <f t="shared" si="10"/>
         <v>e</v>
       </c>
       <c r="S34" s="186" t="str">
@@ -15715,7 +15293,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="186" t="str">
-        <f>J35</f>
+        <f t="shared" si="10"/>
         <v>E</v>
       </c>
       <c r="S35" s="186" t="str">
@@ -15772,7 +15350,7 @@
         <v>11</v>
       </c>
       <c r="R36" s="186" t="str">
-        <f>J36</f>
+        <f t="shared" si="10"/>
         <v>d</v>
       </c>
       <c r="S36" s="186" t="str">
@@ -15831,13 +15409,13 @@
       <c r="Q37" s="1">
         <v>12</v>
       </c>
-      <c r="R37" s="243" t="s">
+      <c r="R37" s="222" t="s">
         <v>317</v>
       </c>
-      <c r="S37" s="244" t="s">
+      <c r="S37" s="223" t="s">
         <v>249</v>
       </c>
-      <c r="T37" s="242" t="str">
+      <c r="T37" s="221" t="str">
         <f>L37</f>
         <v>ㄏ</v>
       </c>
@@ -15895,7 +15473,7 @@
       <c r="T38" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="U38" s="250" t="s">
+      <c r="U38" s="229" t="s">
         <v>171</v>
       </c>
     </row>
@@ -16167,10 +15745,10 @@
       <c r="Q43" s="1">
         <v>18</v>
       </c>
-      <c r="R43" s="242" t="s">
+      <c r="R43" s="221" t="s">
         <v>332</v>
       </c>
-      <c r="S43" s="242" t="s">
+      <c r="S43" s="221" t="s">
         <v>318</v>
       </c>
       <c r="T43" s="186" t="s">
@@ -16348,7 +15926,7 @@
         <f>L45</f>
         <v>ㄥ</v>
       </c>
-      <c r="U46" s="245" t="s">
+      <c r="U46" s="224" t="s">
         <v>27</v>
       </c>
       <c r="V46" t="s">
@@ -16400,15 +15978,15 @@
         <v>22</v>
       </c>
       <c r="R47" s="186" t="str">
-        <f t="shared" ref="R47:T54" si="8">J46</f>
+        <f t="shared" ref="R47:T54" si="11">J46</f>
         <v>u</v>
       </c>
       <c r="S47" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="T47" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>ㄧ</v>
       </c>
       <c r="U47" s="1"/>
@@ -16458,15 +16036,15 @@
         <v>23</v>
       </c>
       <c r="R48" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="S48" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>u</v>
       </c>
       <c r="T48" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>ㄨ</v>
       </c>
       <c r="U48" s="1"/>
@@ -16515,14 +16093,14 @@
       <c r="Q49" s="1">
         <v>24</v>
       </c>
-      <c r="R49" s="243" t="str">
-        <f t="shared" si="8"/>
+      <c r="R49" s="222" t="str">
+        <f t="shared" si="11"/>
         <v>m</v>
       </c>
-      <c r="S49" s="243" t="s">
+      <c r="S49" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="T49" s="244" t="s">
+      <c r="T49" s="223" t="s">
         <v>106</v>
       </c>
       <c r="U49" s="1" t="s">
@@ -16577,7 +16155,7 @@
         <v>25</v>
       </c>
       <c r="R50" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="S50" s="186" t="str">
@@ -16634,14 +16212,14 @@
       <c r="Q51" s="1">
         <v>26</v>
       </c>
-      <c r="R51" s="249" t="str">
-        <f t="shared" si="8"/>
+      <c r="R51" s="228" t="str">
+        <f t="shared" si="11"/>
         <v>i</v>
       </c>
       <c r="S51" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="T51" s="249" t="s">
+      <c r="T51" s="228" t="s">
         <v>339</v>
       </c>
       <c r="U51" s="1" t="s">
@@ -16696,7 +16274,7 @@
         <v>27</v>
       </c>
       <c r="R52" s="186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>k</v>
       </c>
       <c r="S52" s="213" t="s">
@@ -16751,14 +16329,14 @@
       <c r="Q53" s="1">
         <v>28</v>
       </c>
-      <c r="R53" s="249" t="str">
-        <f t="shared" si="8"/>
+      <c r="R53" s="228" t="str">
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
-      <c r="S53" s="249" t="s">
+      <c r="S53" s="228" t="s">
         <v>255</v>
       </c>
-      <c r="T53" s="249" t="s">
+      <c r="T53" s="228" t="s">
         <v>181</v>
       </c>
       <c r="U53" s="1" t="s">
@@ -16809,14 +16387,14 @@
       <c r="Q54" s="1">
         <v>29</v>
       </c>
-      <c r="R54" s="247" t="str">
-        <f t="shared" si="8"/>
+      <c r="R54" s="226" t="str">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="S54" s="247" t="s">
+      <c r="S54" s="226" t="s">
         <v>322</v>
       </c>
-      <c r="T54" s="244" t="str">
+      <c r="T54" s="223" t="str">
         <f>L53</f>
         <v>ㄞ</v>
       </c>
@@ -16866,28 +16444,28 @@
       <c r="Q55" s="1">
         <v>30</v>
       </c>
-      <c r="R55" s="244" t="s">
+      <c r="R55" s="223" t="s">
         <v>237</v>
       </c>
-      <c r="S55" s="244" t="s">
+      <c r="S55" s="223" t="s">
         <v>323</v>
       </c>
-      <c r="T55" s="244" t="s">
+      <c r="T55" s="223" t="s">
         <v>44</v>
       </c>
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="2:30">
       <c r="B56">
-        <f t="shared" ref="B56:B67" si="9" xml:space="preserve"> ROW() - 25</f>
+        <f t="shared" ref="B56:B67" si="12" xml:space="preserve"> ROW() - 25</f>
         <v>31</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" ref="C56:C67" si="10" xml:space="preserve"> MID($D$10, $B56, 1)</f>
+        <f t="shared" ref="C56:C67" si="13" xml:space="preserve"> MID($D$10, $B56, 1)</f>
         <v>@</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" ref="D56:D67" si="11" xml:space="preserve"> MID($D$11, $B56, 1)</f>
+        <f t="shared" ref="D56:D67" si="14" xml:space="preserve"> MID($D$11, $B56, 1)</f>
         <v>0</v>
       </c>
       <c r="F56" s="1" t="str">
@@ -16899,7 +16477,7 @@
         <v>ㄢ</v>
       </c>
       <c r="I56" s="193">
-        <f t="shared" ref="I56:I67" si="12" xml:space="preserve"> ROW() - 25</f>
+        <f t="shared" ref="I56:I67" si="15" xml:space="preserve"> ROW() - 25</f>
         <v>31</v>
       </c>
       <c r="J56" s="194" t="str">
@@ -16937,15 +16515,15 @@
     </row>
     <row r="57" spans="2:30">
       <c r="B57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>N</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>p</v>
       </c>
       <c r="F57" s="1" t="str">
@@ -16957,7 +16535,7 @@
         <v>ㄣ</v>
       </c>
       <c r="I57" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="J57" s="194" t="str">
@@ -16982,28 +16560,28 @@
       <c r="Q57" s="1">
         <v>32</v>
       </c>
-      <c r="R57" s="243">
+      <c r="R57" s="222">
         <v>0</v>
       </c>
-      <c r="S57" s="247" t="s">
+      <c r="S57" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="T57" s="242" t="s">
+      <c r="T57" s="221" t="s">
         <v>39</v>
       </c>
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="2:30">
       <c r="B58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>[</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>;</v>
       </c>
       <c r="F58" s="1" t="str">
@@ -17015,7 +16593,7 @@
         <v>ㄤ</v>
       </c>
       <c r="I58" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="J58" s="194" t="str">
@@ -17037,14 +16615,14 @@
       <c r="Q58" s="1">
         <v>33</v>
       </c>
-      <c r="R58" s="242" t="str">
+      <c r="R58" s="221" t="str">
         <f>J57</f>
         <v>p</v>
       </c>
-      <c r="S58" s="242" t="s">
+      <c r="S58" s="221" t="s">
         <v>325</v>
       </c>
-      <c r="T58" s="242" t="str">
+      <c r="T58" s="221" t="str">
         <f>L57</f>
         <v>ㄣ</v>
       </c>
@@ -17052,15 +16630,15 @@
     </row>
     <row r="59" spans="2:30">
       <c r="B59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="F59" s="1" t="str">
@@ -17072,7 +16650,7 @@
         <v>ㄥ</v>
       </c>
       <c r="I59" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="J59" s="194" t="str">
@@ -17094,29 +16672,29 @@
       <c r="Q59" s="1">
         <v>34</v>
       </c>
-      <c r="R59" s="242" t="str">
+      <c r="R59" s="221" t="str">
         <f>J58</f>
         <v>;</v>
       </c>
-      <c r="S59" s="242" t="s">
+      <c r="S59" s="221" t="s">
         <v>326</v>
       </c>
-      <c r="T59" s="242" t="str">
+      <c r="T59" s="221" t="str">
         <f>L58</f>
         <v>ㄤ</v>
       </c>
     </row>
     <row r="60" spans="2:30">
       <c r="B60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>R</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-</v>
       </c>
       <c r="F60" s="1" t="str">
@@ -17128,7 +16706,7 @@
         <v>ㄦ</v>
       </c>
       <c r="I60" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="J60" s="194" t="str">
@@ -17153,32 +16731,32 @@
       <c r="Q60" s="1">
         <v>35</v>
       </c>
-      <c r="R60" s="242" t="str">
+      <c r="R60" s="221" t="str">
         <f>J59</f>
         <v>/</v>
       </c>
-      <c r="S60" s="242" t="s">
+      <c r="S60" s="221" t="s">
         <v>327</v>
       </c>
-      <c r="T60" s="242" t="str">
+      <c r="T60" s="221" t="str">
         <f>L59</f>
         <v>ㄥ</v>
       </c>
-      <c r="U60" s="245" t="s">
+      <c r="U60" s="224" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:30">
       <c r="B61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>I</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>U</v>
       </c>
       <c r="F61" s="1" t="str">
@@ -17190,7 +16768,7 @@
         <v>ㆪ</v>
       </c>
       <c r="I61" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="J61" s="194" t="str">
@@ -17212,30 +16790,30 @@
       <c r="Q61" s="1">
         <v>36</v>
       </c>
-      <c r="R61" s="248" t="s">
+      <c r="R61" s="227" t="s">
         <v>294</v>
       </c>
-      <c r="S61" s="242" t="s">
+      <c r="S61" s="221" t="s">
         <v>329</v>
       </c>
-      <c r="T61" s="244" t="s">
+      <c r="T61" s="223" t="s">
         <v>230</v>
       </c>
-      <c r="U61" s="245" t="s">
+      <c r="U61" s="224" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="62" spans="2:30">
       <c r="B62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>U</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>J</v>
       </c>
       <c r="F62" s="1" t="str">
@@ -17247,7 +16825,7 @@
         <v>ㆫ</v>
       </c>
       <c r="I62" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="J62" s="194" t="str">
@@ -17272,15 +16850,15 @@
     </row>
     <row r="63" spans="2:30">
       <c r="B63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>*</v>
       </c>
       <c r="F63" s="1" t="str">
@@ -17292,7 +16870,7 @@
         <v>ㆩ</v>
       </c>
       <c r="I63" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="J63" s="194" t="str">
@@ -17324,21 +16902,21 @@
       <c r="T63" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="U63" s="256" t="s">
+      <c r="U63" s="234" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="2:30">
       <c r="B64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Q</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>I</v>
       </c>
       <c r="F64" s="1" t="str">
@@ -17350,7 +16928,7 @@
         <v>ㆧ</v>
       </c>
       <c r="I64" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="J64" s="194" t="str">
@@ -17381,7 +16959,7 @@
       <c r="T64" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="U64" s="256" t="s">
+      <c r="U64" s="234" t="s">
         <v>6</v>
       </c>
       <c r="W64" s="215" t="str">
@@ -17398,15 +16976,15 @@
     </row>
     <row r="65" spans="2:38">
       <c r="B65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>&lt;</v>
       </c>
       <c r="F65" s="1" t="str">
@@ -17418,7 +16996,7 @@
         <v>ㆥ</v>
       </c>
       <c r="I65" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="J65" s="194" t="str">
@@ -17446,10 +17024,10 @@
       <c r="S65" s="186">
         <v>3</v>
       </c>
-      <c r="T65" s="257" t="s">
+      <c r="T65" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="U65" s="256" t="s">
+      <c r="U65" s="234" t="s">
         <v>268</v>
       </c>
       <c r="W65" s="215" t="str">
@@ -17466,15 +17044,15 @@
     </row>
     <row r="66" spans="2:38">
       <c r="B66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>(</v>
       </c>
       <c r="F66" s="1" t="str">
@@ -17486,7 +17064,7 @@
         <v>ㆮ</v>
       </c>
       <c r="I66" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="J66" s="194" t="str">
@@ -17517,7 +17095,7 @@
       <c r="T66" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="256" t="s">
+      <c r="U66" s="234" t="s">
         <v>5</v>
       </c>
       <c r="W66" s="215" t="str">
@@ -17534,15 +17112,15 @@
     </row>
     <row r="67" spans="2:38">
       <c r="B67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>X</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>L</v>
       </c>
       <c r="F67" s="1" t="str">
@@ -17554,7 +17132,7 @@
         <v>ㆯ</v>
       </c>
       <c r="I67" s="193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="J67" s="194" t="str">
@@ -17570,7 +17148,7 @@
         <v>ㆯ</v>
       </c>
       <c r="M67" s="157"/>
-      <c r="O67" s="254"/>
+      <c r="O67" s="233"/>
       <c r="Q67" s="1">
         <v>42</v>
       </c>
@@ -17580,10 +17158,10 @@
       <c r="S67" s="186">
         <v>7</v>
       </c>
-      <c r="T67" s="257" t="s">
+      <c r="T67" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="U67" s="256" t="s">
+      <c r="U67" s="234" t="s">
         <v>269</v>
       </c>
     </row>
@@ -17599,7 +17177,7 @@
       <c r="T68" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="U68" s="256" t="s">
+      <c r="U68" s="234" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17611,7 +17189,7 @@
       </c>
       <c r="AJ69" s="169"/>
     </row>
-    <row r="70" spans="2:38" ht="26.25">
+    <row r="70" spans="2:38" ht="27.75">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="R70" s="209" t="s">
@@ -18084,7 +17662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="33">
+    <row r="10" spans="2:20" ht="36.75">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -18105,7 +17683,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="33">
+    <row r="11" spans="2:20" ht="36.75">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -18931,7 +18509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="30.75">
+    <row r="10" spans="2:20" ht="32.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -18952,7 +18530,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="30.75">
+    <row r="11" spans="2:20" ht="32.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -21537,7 +21115,7 @@
         <v>- xlit|pbPmtTnlkgKwzcsjZCShiIuUaAOQoeEyYxX@MNWR][}{B123570|1!qa2wsxeEd?yhnbYHNcuUjJ8*iIk,&lt;9(lL0mp/o:;OA- 43657|</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="23.25">
+    <row r="9" spans="1:26" ht="25.5">
       <c r="B9">
         <v>1</v>
       </c>
@@ -21586,7 +21164,7 @@
       <c r="Y9" s="166"/>
       <c r="Z9" s="166"/>
     </row>
-    <row r="10" spans="1:26" ht="23.25">
+    <row r="10" spans="1:26" ht="25.5">
       <c r="B10">
         <v>2</v>
       </c>
@@ -21630,7 +21208,7 @@
       <c r="W10" s="164"/>
       <c r="X10" s="164"/>
     </row>
-    <row r="11" spans="1:26" ht="23.25">
+    <row r="11" spans="1:26" ht="25.5">
       <c r="B11">
         <v>3</v>
       </c>
@@ -21679,7 +21257,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="23.25">
+    <row r="12" spans="1:26" ht="25.5">
       <c r="B12">
         <v>4</v>
       </c>
@@ -21723,7 +21301,7 @@
       <c r="W12" s="164"/>
       <c r="X12" s="164"/>
     </row>
-    <row r="13" spans="1:26" ht="23.25">
+    <row r="13" spans="1:26" ht="25.5">
       <c r="B13">
         <v>5</v>
       </c>
@@ -21772,7 +21350,7 @@
       <c r="Y13" s="166"/>
       <c r="Z13" s="166"/>
     </row>
-    <row r="14" spans="1:26" ht="23.25">
+    <row r="14" spans="1:26" ht="25.5">
       <c r="B14">
         <v>6</v>
       </c>
@@ -21816,7 +21394,7 @@
       <c r="W14" s="164"/>
       <c r="X14" s="164"/>
     </row>
-    <row r="15" spans="1:26" ht="23.25">
+    <row r="15" spans="1:26" ht="25.5">
       <c r="B15">
         <v>7</v>
       </c>
@@ -22685,7 +22263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="23.25">
+    <row r="41" spans="2:14" ht="25.5">
       <c r="B41">
         <v>33</v>
       </c>
@@ -22719,7 +22297,7 @@
         <v>- "xlit|pPmtTnlkKwzcsjhiuaOoeyx@MNWR[]}{B123570IUAQEYX|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657UJ*I&lt;(L|"</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="23.25">
+    <row r="42" spans="2:14" ht="25.5">
       <c r="B42">
         <v>34</v>
       </c>
@@ -22753,7 +22331,7 @@
       </c>
       <c r="N42" s="164"/>
     </row>
-    <row r="43" spans="2:14" ht="23.25">
+    <row r="43" spans="2:14" ht="25.5">
       <c r="B43">
         <v>35</v>
       </c>
@@ -22790,7 +22368,7 @@
         <v>- "xlit|1qa2wsxed?yhnbcuj8ik,9l0mp/o;:OAz 43657UJ*I&lt;(L|ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㄖㄏㄧㄨㄚㆦㄜㄝㄞㄠㄢㆬㄣㄥㄦㄤㆲㆱㆰｎˉˋ˪ˇ˫˙ㆪㆫㆩㆧㆥㆮㆯ|"</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="23.25">
+    <row r="44" spans="2:14" ht="25.5">
       <c r="B44">
         <v>36</v>
       </c>
@@ -22824,7 +22402,7 @@
       </c>
       <c r="N44" s="164"/>
     </row>
-    <row r="45" spans="2:14" ht="23.25">
+    <row r="45" spans="2:14" ht="25.5">
       <c r="B45">
         <v>37</v>
       </c>
@@ -23383,7 +22961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="33">
+    <row r="10" spans="2:20" ht="36.75">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -23404,7 +22982,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="33">
+    <row r="11" spans="2:20" ht="36.75">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -23425,7 +23003,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="13" spans="2:20" ht="23.25">
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13">
         <f t="shared" ref="B13:B63" si="0" xml:space="preserve"> ROW() -12</f>
         <v>1</v>
@@ -25327,7 +24905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="27.75">
+    <row r="10" spans="2:27" ht="30">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -25348,7 +24926,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:27" ht="27.75">
+    <row r="11" spans="2:27" ht="30">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -25369,7 +24947,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="13" spans="2:27" ht="23.25">
+    <row r="13" spans="2:27" ht="25.5">
       <c r="B13">
         <f t="shared" ref="B13:B63" si="0" xml:space="preserve"> ROW() -12</f>
         <v>1</v>
@@ -26375,7 +25953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="23.25">
+    <row r="51" spans="2:12" ht="25.5">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -26684,7 +26262,7 @@
     <col min="12" max="12" width="8.796875" style="195"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="23.25">
+    <row r="2" spans="2:20" ht="25.5">
       <c r="B2" s="190" t="s">
         <v>314</v>
       </c>
@@ -26779,7 +26357,7 @@
       <c r="J9" s="1"/>
       <c r="L9" s="157"/>
     </row>
-    <row r="10" spans="2:20" ht="26.25">
+    <row r="10" spans="2:20" ht="27.75">
       <c r="B10" t="s">
         <v>316</v>
       </c>
@@ -26803,7 +26381,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="26.25">
+    <row r="11" spans="2:20" ht="27.75">
       <c r="B11" t="s">
         <v>312</v>
       </c>
@@ -26827,7 +26405,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="23.25">
+    <row r="14" spans="2:20" ht="25.5">
       <c r="B14" s="190" t="s">
         <v>313</v>
       </c>
@@ -26922,7 +26500,7 @@
       <c r="J21" s="1"/>
       <c r="L21" s="157"/>
     </row>
-    <row r="22" spans="2:15" ht="26.25">
+    <row r="22" spans="2:15" ht="27.75">
       <c r="B22" t="s">
         <v>312</v>
       </c>
@@ -26946,7 +26524,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" ht="26.25">
+    <row r="23" spans="2:15" ht="27.75">
       <c r="B23" t="s">
         <v>153</v>
       </c>
@@ -28858,7 +28436,7 @@
     <col min="12" max="12" width="8.796875" style="195"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="23.25">
+    <row r="2" spans="2:20" ht="25.5">
       <c r="B2" s="190" t="s">
         <v>314</v>
       </c>
@@ -28953,7 +28531,7 @@
       <c r="J9" s="1"/>
       <c r="L9" s="157"/>
     </row>
-    <row r="10" spans="2:20" ht="26.25">
+    <row r="10" spans="2:20" ht="27.75">
       <c r="B10" t="s">
         <v>316</v>
       </c>
@@ -28977,7 +28555,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="26.25">
+    <row r="11" spans="2:20" ht="27.75">
       <c r="B11" t="s">
         <v>312</v>
       </c>
@@ -29001,7 +28579,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="23.25">
+    <row r="14" spans="2:20" ht="25.5">
       <c r="B14" s="190" t="s">
         <v>313</v>
       </c>
@@ -29096,7 +28674,7 @@
       <c r="J21" s="1"/>
       <c r="L21" s="157"/>
     </row>
-    <row r="22" spans="2:36" ht="26.25">
+    <row r="22" spans="2:36" ht="27.75">
       <c r="B22" t="s">
         <v>312</v>
       </c>
@@ -29120,7 +28698,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:36" ht="26.25">
+    <row r="23" spans="2:36" ht="27.75">
       <c r="B23" t="s">
         <v>153</v>
       </c>
@@ -29181,7 +28759,7 @@
         <v>注音編碼與按鍵對映</v>
       </c>
     </row>
-    <row r="26" spans="2:36" ht="26.25">
+    <row r="26" spans="2:36" ht="27.75">
       <c r="B26">
         <f xml:space="preserve"> ROW() - 25</f>
         <v>1</v>
@@ -31445,11 +31023,11 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B62, 1)</f>
+        <f t="shared" ref="F63:F68" si="22" xml:space="preserve"> MID($D$22, $B62, 1)</f>
         <v>4</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B62, 1)</f>
+        <f t="shared" ref="G63:G68" si="23" xml:space="preserve"> MID($D$23, $B62, 1)</f>
         <v>ˋ</v>
       </c>
       <c r="I63" s="193">
@@ -31501,11 +31079,11 @@
         <v>3</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B63, 1)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B63, 1)</f>
+        <f t="shared" si="23"/>
         <v>˪</v>
       </c>
       <c r="I64" s="193">
@@ -31528,11 +31106,11 @@
         <v>39</v>
       </c>
       <c r="Q64" s="1" t="str">
-        <f t="shared" ref="Q64:R67" si="22">J64</f>
+        <f t="shared" ref="Q64:R67" si="24">J64</f>
         <v>3</v>
       </c>
       <c r="R64" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="S64" s="206" t="str">
@@ -31571,11 +31149,11 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B64, 1)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B64, 1)</f>
+        <f t="shared" si="23"/>
         <v>ˊ</v>
       </c>
       <c r="I65" s="193">
@@ -31598,11 +31176,11 @@
         <v>40</v>
       </c>
       <c r="Q65" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="S65" s="204" t="s">
@@ -31636,11 +31214,11 @@
         <v>5</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B65, 1)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B65, 1)</f>
+        <f t="shared" si="23"/>
         <v>˫</v>
       </c>
       <c r="I66" s="193">
@@ -31663,11 +31241,11 @@
         <v>41</v>
       </c>
       <c r="Q66" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="R66" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S66" s="206" t="str">
@@ -31702,11 +31280,11 @@
         <v>7</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B66, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B66, 1)</f>
+        <f t="shared" si="23"/>
         <v>．</v>
       </c>
       <c r="I67" s="193">
@@ -31729,11 +31307,11 @@
         <v>42</v>
       </c>
       <c r="Q67" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="R67" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S67" s="1" t="s">
@@ -31747,11 +31325,11 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="F68" s="1" t="str">
-        <f xml:space="preserve"> MID($D$22, $B67, 1)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G68" s="1" t="str">
-        <f xml:space="preserve"> MID($D$23, $B67, 1)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -31771,7 +31349,7 @@
         <v>注音編碼與按鍵對映</v>
       </c>
     </row>
-    <row r="70" spans="2:37" ht="26.25">
+    <row r="70" spans="2:37" ht="27.75">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="Q70" s="209" t="s">
